--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>212.5</v>
+        <v>214.1</v>
       </c>
       <c r="C2" t="n">
-        <v>212.6</v>
+        <v>214.1</v>
       </c>
       <c r="D2" t="n">
-        <v>212.6</v>
+        <v>214.1</v>
       </c>
       <c r="E2" t="n">
-        <v>212.5</v>
+        <v>214.1</v>
       </c>
       <c r="F2" t="n">
-        <v>445.632</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>211.8266666666666</v>
+        <v>-135898.1007733898</v>
       </c>
       <c r="H2" t="n">
-        <v>212.5133333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
-        <v>212.6</v>
+        <v>213.8</v>
       </c>
       <c r="D3" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="E3" t="n">
-        <v>212.6</v>
+        <v>213.8</v>
       </c>
       <c r="F3" t="n">
-        <v>238.5715</v>
+        <v>6703.6046</v>
       </c>
       <c r="G3" t="n">
-        <v>212.02</v>
+        <v>-142601.7053733898</v>
       </c>
       <c r="H3" t="n">
-        <v>212.5266666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="C4" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="D4" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="E4" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3516.4819</v>
+        <v>192.4899</v>
       </c>
       <c r="G4" t="n">
-        <v>212.2133333333333</v>
+        <v>-142794.1952733898</v>
       </c>
       <c r="H4" t="n">
-        <v>212.5416666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="C5" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="D5" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="E5" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="F5" t="n">
-        <v>17804.4069</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>212.2733333333333</v>
+        <v>-142794.1952733898</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5516666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212.2</v>
+        <v>213.4</v>
       </c>
       <c r="C6" t="n">
-        <v>212</v>
+        <v>211.8</v>
       </c>
       <c r="D6" t="n">
-        <v>212.2</v>
+        <v>213.6</v>
       </c>
       <c r="E6" t="n">
-        <v>212</v>
+        <v>211.8</v>
       </c>
       <c r="F6" t="n">
-        <v>14500.9898</v>
+        <v>20567981.2262</v>
       </c>
       <c r="G6" t="n">
-        <v>212.2466666666666</v>
+        <v>-20710775.42147339</v>
       </c>
       <c r="H6" t="n">
-        <v>212.5616666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>212</v>
+        <v>211.8</v>
       </c>
       <c r="C7" t="n">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="D7" t="n">
-        <v>213</v>
+        <v>211.8</v>
       </c>
       <c r="E7" t="n">
-        <v>212</v>
+        <v>211.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2509.0102</v>
+        <v>53922.0844</v>
       </c>
       <c r="G7" t="n">
-        <v>212.3133333333333</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H7" t="n">
-        <v>212.5866666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>211.7</v>
+        <v>211.5</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="D8" t="n">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7</v>
+        <v>211.5</v>
       </c>
       <c r="F8" t="n">
-        <v>7200</v>
+        <v>40865.7759</v>
       </c>
       <c r="G8" t="n">
-        <v>212.3733333333333</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H8" t="n">
-        <v>212.6116666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="C9" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="D9" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="E9" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="F9" t="n">
-        <v>6849.5817</v>
+        <v>5384.075</v>
       </c>
       <c r="G9" t="n">
-        <v>212.4333333333333</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H9" t="n">
-        <v>212.6183333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="C10" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="D10" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="E10" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>4955.0349</v>
       </c>
       <c r="G10" t="n">
-        <v>212.46</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H10" t="n">
-        <v>212.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="C11" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="D11" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="E11" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2982.0513</v>
+        <v>8661.3104</v>
       </c>
       <c r="G11" t="n">
-        <v>212.48</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H11" t="n">
-        <v>212.6366666666666</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>212.1</v>
+        <v>211.4</v>
       </c>
       <c r="C12" t="n">
-        <v>212.1</v>
+        <v>213.1</v>
       </c>
       <c r="D12" t="n">
-        <v>212.1</v>
+        <v>213.3</v>
       </c>
       <c r="E12" t="n">
-        <v>212.1</v>
+        <v>211.4</v>
       </c>
       <c r="F12" t="n">
-        <v>3359.0406</v>
+        <v>1045</v>
       </c>
       <c r="G12" t="n">
-        <v>212.4466666666667</v>
+        <v>-20763652.50587339</v>
       </c>
       <c r="H12" t="n">
-        <v>212.6349999999999</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>212.1</v>
+        <v>211.2</v>
       </c>
       <c r="C13" t="n">
-        <v>212.1</v>
+        <v>211</v>
       </c>
       <c r="D13" t="n">
-        <v>212.1</v>
+        <v>211.2</v>
       </c>
       <c r="E13" t="n">
-        <v>212.1</v>
+        <v>211</v>
       </c>
       <c r="F13" t="n">
-        <v>12001.6057</v>
+        <v>16401.4645</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4266666666666</v>
+        <v>-20780053.97037338</v>
       </c>
       <c r="H13" t="n">
-        <v>212.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -960,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>212.1</v>
+        <v>210.9</v>
       </c>
       <c r="C14" t="n">
-        <v>212.1</v>
+        <v>210.7</v>
       </c>
       <c r="D14" t="n">
-        <v>212.1</v>
+        <v>210.9</v>
       </c>
       <c r="E14" t="n">
-        <v>212.1</v>
+        <v>210.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>2695.7599</v>
       </c>
       <c r="G14" t="n">
-        <v>212.42</v>
+        <v>-20782749.73027338</v>
       </c>
       <c r="H14" t="n">
-        <v>212.605</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>212.1</v>
+        <v>210.5</v>
       </c>
       <c r="C15" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="D15" t="n">
-        <v>212.1</v>
+        <v>210.5</v>
       </c>
       <c r="E15" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="F15" t="n">
-        <v>2600</v>
+        <v>33167.7718</v>
       </c>
       <c r="G15" t="n">
-        <v>212.4</v>
+        <v>-20815917.50207338</v>
       </c>
       <c r="H15" t="n">
-        <v>212.5666666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1048,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="C16" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="D16" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="E16" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>14001.9093</v>
       </c>
       <c r="G16" t="n">
-        <v>212.3733333333333</v>
+        <v>-20829919.41137338</v>
       </c>
       <c r="H16" t="n">
-        <v>212.5383333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1092,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="D17" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="E17" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="F17" t="n">
-        <v>5990</v>
+        <v>7625.2669</v>
       </c>
       <c r="G17" t="n">
-        <v>212.34</v>
+        <v>-20837544.67827338</v>
       </c>
       <c r="H17" t="n">
-        <v>212.495</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1136,44 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="C18" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="D18" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="E18" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="F18" t="n">
-        <v>505</v>
+        <v>52011.204</v>
       </c>
       <c r="G18" t="n">
-        <v>212.3066666666666</v>
+        <v>-20837544.67827338</v>
       </c>
       <c r="H18" t="n">
-        <v>212.45</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>212.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,44 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="C19" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="D19" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="E19" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="F19" t="n">
-        <v>43.2393</v>
+        <v>254.5509</v>
       </c>
       <c r="G19" t="n">
-        <v>212.2733333333333</v>
+        <v>-20837290.12737338</v>
       </c>
       <c r="H19" t="n">
-        <v>212.4183333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>212.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="C20" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="D20" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="E20" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="F20" t="n">
-        <v>19566.9332</v>
+        <v>3498.04143126177</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2933333333333</v>
+        <v>-20833792.08594212</v>
       </c>
       <c r="H20" t="n">
-        <v>212.4</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>212.9</v>
+        <v>212.1</v>
       </c>
       <c r="C21" t="n">
-        <v>212.9</v>
+        <v>212</v>
       </c>
       <c r="D21" t="n">
-        <v>212.9</v>
+        <v>212.2</v>
       </c>
       <c r="E21" t="n">
-        <v>212.9</v>
+        <v>212</v>
       </c>
       <c r="F21" t="n">
-        <v>7131.9524</v>
+        <v>6535.4398</v>
       </c>
       <c r="G21" t="n">
-        <v>212.3533333333333</v>
+        <v>-20840327.52574212</v>
       </c>
       <c r="H21" t="n">
-        <v>212.3816666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1316,42 +1133,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="C22" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="D22" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="E22" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="F22" t="n">
-        <v>707.4233</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>212.3866666666667</v>
+        <v>-20840317.52574212</v>
       </c>
       <c r="H22" t="n">
-        <v>212.3733333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>212</v>
+      </c>
+      <c r="K22" t="n">
+        <v>212</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,42 +1172,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>213.9</v>
+        <v>212.1</v>
       </c>
       <c r="C23" t="n">
-        <v>213.9</v>
+        <v>211</v>
       </c>
       <c r="D23" t="n">
-        <v>213.9</v>
+        <v>212.1</v>
       </c>
       <c r="E23" t="n">
-        <v>213.9</v>
+        <v>211</v>
       </c>
       <c r="F23" t="n">
-        <v>12936</v>
+        <v>11522.7418</v>
       </c>
       <c r="G23" t="n">
-        <v>212.4466666666667</v>
+        <v>-20851840.26754212</v>
       </c>
       <c r="H23" t="n">
-        <v>212.3716666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>212</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,42 +1213,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="C24" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="D24" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="F24" t="n">
-        <v>18351.9503</v>
+        <v>14.5626</v>
       </c>
       <c r="G24" t="n">
-        <v>212.58</v>
+        <v>-20851825.70494212</v>
       </c>
       <c r="H24" t="n">
-        <v>212.37</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>212</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,42 +1254,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="C25" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="D25" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="E25" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="F25" t="n">
-        <v>6468</v>
+        <v>14.1042</v>
       </c>
       <c r="G25" t="n">
-        <v>212.6866666666666</v>
+        <v>-20851811.60074212</v>
       </c>
       <c r="H25" t="n">
-        <v>212.37</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>212</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,42 +1295,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="C26" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="D26" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="E26" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="F26" t="n">
-        <v>2320.7306</v>
+        <v>18200.8385</v>
       </c>
       <c r="G26" t="n">
-        <v>212.7933333333333</v>
+        <v>-20833610.76224212</v>
       </c>
       <c r="H26" t="n">
-        <v>212.37</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>212</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1536,42 +1336,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>214</v>
+        <v>212.4</v>
       </c>
       <c r="C27" t="n">
-        <v>214</v>
+        <v>212.4</v>
       </c>
       <c r="D27" t="n">
-        <v>214.1</v>
+        <v>212.4</v>
       </c>
       <c r="E27" t="n">
-        <v>213.9</v>
+        <v>212.4</v>
       </c>
       <c r="F27" t="n">
-        <v>1175.5333</v>
+        <v>4210.9984</v>
       </c>
       <c r="G27" t="n">
-        <v>212.92</v>
+        <v>-20837821.76064212</v>
       </c>
       <c r="H27" t="n">
-        <v>212.37</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>212</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,42 +1377,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="F28" t="n">
-        <v>12200.8806</v>
+        <v>1175.1911</v>
       </c>
       <c r="G28" t="n">
-        <v>213.04</v>
+        <v>-20838996.95174212</v>
       </c>
       <c r="H28" t="n">
-        <v>212.3683333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>212</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,42 +1418,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="C29" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="D29" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="E29" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="F29" t="n">
-        <v>156.827</v>
+        <v>142.4468</v>
       </c>
       <c r="G29" t="n">
-        <v>213.12</v>
+        <v>-20838854.50494212</v>
       </c>
       <c r="H29" t="n">
-        <v>212.355</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>212</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,42 +1459,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>214.2</v>
+        <v>212.4</v>
       </c>
       <c r="C30" t="n">
-        <v>214.2</v>
+        <v>212.5</v>
       </c>
       <c r="D30" t="n">
-        <v>214.2</v>
+        <v>212.5</v>
       </c>
       <c r="E30" t="n">
-        <v>214.2</v>
+        <v>212.4</v>
       </c>
       <c r="F30" t="n">
-        <v>525.7797</v>
+        <v>1194.4491</v>
       </c>
       <c r="G30" t="n">
-        <v>213.26</v>
+        <v>-20837660.05584212</v>
       </c>
       <c r="H30" t="n">
-        <v>212.3583333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>212</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,42 +1500,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>214.8</v>
+        <v>212.5</v>
       </c>
       <c r="C31" t="n">
-        <v>214.8</v>
+        <v>212.6</v>
       </c>
       <c r="D31" t="n">
-        <v>214.8</v>
+        <v>212.6</v>
       </c>
       <c r="E31" t="n">
-        <v>214.8</v>
+        <v>212.5</v>
       </c>
       <c r="F31" t="n">
-        <v>2.33</v>
+        <v>445.632</v>
       </c>
       <c r="G31" t="n">
-        <v>213.44</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H31" t="n">
-        <v>212.3716666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>212</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,42 +1541,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="C32" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="D32" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="E32" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="F32" t="n">
-        <v>320.096</v>
+        <v>238.5715</v>
       </c>
       <c r="G32" t="n">
-        <v>213.6</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H32" t="n">
-        <v>212.38</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>212</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,42 +1582,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="C33" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="D33" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="E33" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="F33" t="n">
-        <v>554.1662</v>
+        <v>3516.4819</v>
       </c>
       <c r="G33" t="n">
-        <v>213.76</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H33" t="n">
-        <v>212.3866666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>212</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,42 +1623,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="C34" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="D34" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="E34" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="F34" t="n">
-        <v>19438.7804</v>
+        <v>17804.4069</v>
       </c>
       <c r="G34" t="n">
-        <v>213.92</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H34" t="n">
-        <v>212.3983333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>212</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1888,42 +1664,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>215</v>
+        <v>212.2</v>
       </c>
       <c r="C35" t="n">
-        <v>214.5</v>
+        <v>212</v>
       </c>
       <c r="D35" t="n">
-        <v>215</v>
+        <v>212.2</v>
       </c>
       <c r="E35" t="n">
-        <v>214.5</v>
+        <v>212</v>
       </c>
       <c r="F35" t="n">
-        <v>470.529</v>
+        <v>14500.9898</v>
       </c>
       <c r="G35" t="n">
-        <v>214.0266666666667</v>
+        <v>-20851715.41364212</v>
       </c>
       <c r="H35" t="n">
-        <v>212.435</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>212</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,42 +1705,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>215.3</v>
+        <v>212</v>
       </c>
       <c r="C36" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="D36" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="E36" t="n">
-        <v>215.3</v>
+        <v>212</v>
       </c>
       <c r="F36" t="n">
-        <v>2.33</v>
+        <v>2509.0102</v>
       </c>
       <c r="G36" t="n">
-        <v>214.1866666666667</v>
+        <v>-20849206.40344211</v>
       </c>
       <c r="H36" t="n">
-        <v>212.485</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>212</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,42 +1746,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>215.3</v>
+        <v>211.7</v>
       </c>
       <c r="C37" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="D37" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="E37" t="n">
-        <v>215.3</v>
+        <v>211.7</v>
       </c>
       <c r="F37" t="n">
-        <v>1943.1566</v>
+        <v>7200</v>
       </c>
       <c r="G37" t="n">
-        <v>214.3066666666667</v>
+        <v>-20849206.40344211</v>
       </c>
       <c r="H37" t="n">
-        <v>212.5433333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>212</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,42 +1787,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="C38" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="D38" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="E38" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="F38" t="n">
-        <v>1906.5718</v>
+        <v>6849.5817</v>
       </c>
       <c r="G38" t="n">
-        <v>214.4000000000001</v>
+        <v>-20856055.98514212</v>
       </c>
       <c r="H38" t="n">
-        <v>212.6066666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>212</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2064,42 +1828,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="C39" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="D39" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="E39" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="F39" t="n">
-        <v>336.4402</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>214.4933333333334</v>
+        <v>-20855055.98514212</v>
       </c>
       <c r="H39" t="n">
-        <v>212.67</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>212</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,42 +1869,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="C40" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="D40" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="E40" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="F40" t="n">
-        <v>487.4236</v>
+        <v>2982.0513</v>
       </c>
       <c r="G40" t="n">
-        <v>214.5800000000001</v>
+        <v>-20855055.98514212</v>
       </c>
       <c r="H40" t="n">
-        <v>212.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>212</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,42 +1910,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C41" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D41" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E41" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F41" t="n">
-        <v>4168.2504</v>
+        <v>3359.0406</v>
       </c>
       <c r="G41" t="n">
-        <v>214.6666666666668</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H41" t="n">
-        <v>212.7966666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>212</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2196,42 +1951,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="C42" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="D42" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="E42" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="F42" t="n">
-        <v>1502.1535</v>
+        <v>12001.6057</v>
       </c>
       <c r="G42" t="n">
-        <v>214.7133333333334</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H42" t="n">
-        <v>212.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>212</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,42 +1992,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C43" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D43" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E43" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F43" t="n">
-        <v>212.2492</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="n">
-        <v>214.8066666666668</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H43" t="n">
-        <v>212.8866666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>212</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,42 +2033,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C44" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D44" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E44" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F44" t="n">
-        <v>14943.5781</v>
+        <v>2600</v>
       </c>
       <c r="G44" t="n">
-        <v>214.9400000000001</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H44" t="n">
-        <v>212.9583333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>212</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2328,42 +2074,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C45" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D45" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E45" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F45" t="n">
-        <v>281.6668</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>215.0133333333334</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H45" t="n">
-        <v>213.0349999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>212</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,42 +2115,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="C46" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="D46" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="E46" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="F46" t="n">
-        <v>2.31</v>
+        <v>5990</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1266666666668</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H46" t="n">
-        <v>213.1449999999999</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>212</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,42 +2156,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="C47" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="D47" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="E47" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="F47" t="n">
-        <v>3717</v>
+        <v>505</v>
       </c>
       <c r="G47" t="n">
-        <v>215.2533333333334</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H47" t="n">
-        <v>213.2549999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>212</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,42 +2197,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="C48" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="D48" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="E48" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="F48" t="n">
-        <v>52.2554</v>
+        <v>43.2393</v>
       </c>
       <c r="G48" t="n">
-        <v>215.3800000000001</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H48" t="n">
-        <v>213.3666666666665</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>212</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,42 +2238,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="C49" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="D49" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="E49" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="F49" t="n">
-        <v>19934.5204</v>
+        <v>19566.9332</v>
       </c>
       <c r="G49" t="n">
-        <v>215.4666666666668</v>
+        <v>-20838848.09254212</v>
       </c>
       <c r="H49" t="n">
-        <v>213.4683333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>212</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,42 +2279,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>216.9</v>
+        <v>212.9</v>
       </c>
       <c r="C50" t="n">
-        <v>215.3</v>
+        <v>212.9</v>
       </c>
       <c r="D50" t="n">
-        <v>216.9</v>
+        <v>212.9</v>
       </c>
       <c r="E50" t="n">
-        <v>215.3</v>
+        <v>212.9</v>
       </c>
       <c r="F50" t="n">
-        <v>12097.3056</v>
+        <v>7131.9524</v>
       </c>
       <c r="G50" t="n">
-        <v>215.5200000000001</v>
+        <v>-20838848.09254212</v>
       </c>
       <c r="H50" t="n">
-        <v>213.5283333333332</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>212</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,42 +2320,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="C51" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="D51" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="E51" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2.31</v>
+        <v>707.4233</v>
       </c>
       <c r="G51" t="n">
-        <v>215.6200000000001</v>
+        <v>-20838140.66924211</v>
       </c>
       <c r="H51" t="n">
-        <v>213.6016666666665</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>212</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,43 +2361,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="C52" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="D52" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="E52" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="F52" t="n">
-        <v>105.0675</v>
+        <v>12936</v>
       </c>
       <c r="G52" t="n">
-        <v>215.6666666666668</v>
+        <v>-20825204.66924211</v>
       </c>
       <c r="H52" t="n">
-        <v>213.6683333333332</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>1.010992474129821</v>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>212</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2680,36 +2402,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="C53" t="n">
-        <v>215.8</v>
+        <v>213.9</v>
       </c>
       <c r="D53" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E53" t="n">
-        <v>215.8</v>
+        <v>213.9</v>
       </c>
       <c r="F53" t="n">
-        <v>9538.068600000001</v>
+        <v>18351.9503</v>
       </c>
       <c r="G53" t="n">
-        <v>215.7000000000001</v>
+        <v>-20825204.66924211</v>
       </c>
       <c r="H53" t="n">
-        <v>213.7299999999998</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>212</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2443,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>215.7</v>
+        <v>214</v>
       </c>
       <c r="C54" t="n">
-        <v>216.7</v>
+        <v>214</v>
       </c>
       <c r="D54" t="n">
-        <v>216.7</v>
+        <v>214</v>
       </c>
       <c r="E54" t="n">
-        <v>215.7</v>
+        <v>214</v>
       </c>
       <c r="F54" t="n">
-        <v>1377.2863</v>
+        <v>6468</v>
       </c>
       <c r="G54" t="n">
-        <v>215.7933333333334</v>
+        <v>-20818736.66924211</v>
       </c>
       <c r="H54" t="n">
-        <v>213.8249999999998</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>212</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2484,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F55" t="n">
-        <v>227.3099</v>
+        <v>2320.7306</v>
       </c>
       <c r="G55" t="n">
-        <v>215.7733333333334</v>
+        <v>-20818736.66924211</v>
       </c>
       <c r="H55" t="n">
-        <v>213.8749999999998</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>212</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2525,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" t="n">
-        <v>215</v>
+        <v>214.1</v>
       </c>
       <c r="E56" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="F56" t="n">
-        <v>6105</v>
+        <v>1175.5333</v>
       </c>
       <c r="G56" t="n">
-        <v>215.7533333333334</v>
+        <v>-20818736.66924211</v>
       </c>
       <c r="H56" t="n">
-        <v>213.9233333333331</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>212</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2566,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="C57" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="D57" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="E57" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="F57" t="n">
-        <v>2264.11</v>
+        <v>12200.8806</v>
       </c>
       <c r="G57" t="n">
-        <v>215.7733333333334</v>
+        <v>-20830937.54984212</v>
       </c>
       <c r="H57" t="n">
-        <v>213.9633333333331</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>212</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2607,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="C58" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="D58" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="E58" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="F58" t="n">
-        <v>2.32</v>
+        <v>156.827</v>
       </c>
       <c r="G58" t="n">
-        <v>215.8200000000001</v>
+        <v>-20831094.37684212</v>
       </c>
       <c r="H58" t="n">
-        <v>214.0233333333331</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>212</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2648,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="C59" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="D59" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="E59" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="F59" t="n">
-        <v>3812.2035</v>
+        <v>525.7797</v>
       </c>
       <c r="G59" t="n">
-        <v>215.8933333333334</v>
+        <v>-20830568.59714212</v>
       </c>
       <c r="H59" t="n">
-        <v>214.0933333333331</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>212</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2689,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="C60" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="D60" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="E60" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="F60" t="n">
-        <v>5258.2651</v>
+        <v>2.33</v>
       </c>
       <c r="G60" t="n">
-        <v>215.9666666666667</v>
+        <v>-20830566.26714212</v>
       </c>
       <c r="H60" t="n">
-        <v>214.1599999999998</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>212</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2730,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>214.5</v>
       </c>
       <c r="C61" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="D61" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="E61" t="n">
-        <v>217</v>
+        <v>214.5</v>
       </c>
       <c r="F61" t="n">
-        <v>4771.6339</v>
+        <v>320.096</v>
       </c>
       <c r="G61" t="n">
-        <v>216.0200000000001</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H61" t="n">
-        <v>214.2399999999998</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>212</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2771,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="C62" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="D62" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="E62" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="F62" t="n">
-        <v>2345</v>
+        <v>554.1662</v>
       </c>
       <c r="G62" t="n">
-        <v>216.0800000000001</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H62" t="n">
-        <v>214.3183333333331</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>212</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2812,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="C63" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="D63" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="E63" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="F63" t="n">
-        <v>499.8584</v>
+        <v>19438.7804</v>
       </c>
       <c r="G63" t="n">
-        <v>216.1133333333334</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H63" t="n">
-        <v>214.3899999999998</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>212</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2853,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>215.9</v>
+        <v>215</v>
       </c>
       <c r="C64" t="n">
-        <v>215.9</v>
+        <v>214.5</v>
       </c>
       <c r="D64" t="n">
-        <v>215.9</v>
+        <v>215</v>
       </c>
       <c r="E64" t="n">
-        <v>215.9</v>
+        <v>214.5</v>
       </c>
       <c r="F64" t="n">
-        <v>284.0344</v>
+        <v>470.529</v>
       </c>
       <c r="G64" t="n">
-        <v>216.1200000000001</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H64" t="n">
-        <v>214.4449999999997</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>212</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2894,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C65" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D65" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="E65" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F65" t="n">
-        <v>814.026</v>
+        <v>2.33</v>
       </c>
       <c r="G65" t="n">
-        <v>216.2266666666667</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H65" t="n">
-        <v>214.5166666666664</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>212</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2935,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="C66" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="D66" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="E66" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>1943.1566</v>
       </c>
       <c r="G66" t="n">
-        <v>216.2266666666667</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H66" t="n">
-        <v>214.5966666666664</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>212</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2976,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C67" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D67" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="E67" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F67" t="n">
-        <v>4213.8855</v>
+        <v>1906.5718</v>
       </c>
       <c r="G67" t="n">
-        <v>216.2866666666667</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H67" t="n">
-        <v>214.6616666666664</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>212</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3017,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C68" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D68" t="n">
-        <v>217</v>
+        <v>215.3</v>
       </c>
       <c r="E68" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F68" t="n">
-        <v>15836.5607</v>
+        <v>336.4402</v>
       </c>
       <c r="G68" t="n">
-        <v>216.3600000000001</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H68" t="n">
-        <v>214.7266666666664</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>212</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C69" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D69" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="E69" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F69" t="n">
-        <v>4916.5621</v>
+        <v>487.4236</v>
       </c>
       <c r="G69" t="n">
-        <v>216.3733333333334</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H69" t="n">
-        <v>214.8099999999997</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>212</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3099,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>216</v>
+        <v>215.3</v>
       </c>
       <c r="C70" t="n">
-        <v>217</v>
+        <v>215.3</v>
       </c>
       <c r="D70" t="n">
-        <v>217</v>
+        <v>215.3</v>
       </c>
       <c r="E70" t="n">
-        <v>216</v>
+        <v>215.3</v>
       </c>
       <c r="F70" t="n">
-        <v>29</v>
+        <v>4168.2504</v>
       </c>
       <c r="G70" t="n">
-        <v>216.5066666666667</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H70" t="n">
-        <v>214.8866666666664</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>212</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3140,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>216</v>
+        <v>214.7</v>
       </c>
       <c r="C71" t="n">
-        <v>215.9</v>
+        <v>214.7</v>
       </c>
       <c r="D71" t="n">
-        <v>216</v>
+        <v>214.7</v>
       </c>
       <c r="E71" t="n">
-        <v>215.9</v>
+        <v>214.7</v>
       </c>
       <c r="F71" t="n">
-        <v>1268.6109</v>
+        <v>1502.1535</v>
       </c>
       <c r="G71" t="n">
-        <v>216.5666666666667</v>
+        <v>-20832386.18664212</v>
       </c>
       <c r="H71" t="n">
-        <v>214.9449999999997</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>212</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3181,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="C72" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="D72" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="E72" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="F72" t="n">
-        <v>2416.9999</v>
+        <v>212.2492</v>
       </c>
       <c r="G72" t="n">
-        <v>216.6266666666668</v>
+        <v>-20832173.93744212</v>
       </c>
       <c r="H72" t="n">
-        <v>215.008333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>212</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3222,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="C73" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="D73" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="E73" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="F73" t="n">
-        <v>417.9999</v>
+        <v>14943.5781</v>
       </c>
       <c r="G73" t="n">
-        <v>216.6200000000001</v>
+        <v>-20832173.93744212</v>
       </c>
       <c r="H73" t="n">
-        <v>215.0716666666663</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>212</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3263,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="C74" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="D74" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="E74" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="F74" t="n">
-        <v>1873.5625</v>
+        <v>281.6668</v>
       </c>
       <c r="G74" t="n">
-        <v>216.5866666666668</v>
+        <v>-20832173.93744212</v>
       </c>
       <c r="H74" t="n">
-        <v>215.1349999999997</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>212</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3304,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="C75" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="D75" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="E75" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="F75" t="n">
-        <v>3991.55</v>
+        <v>2.31</v>
       </c>
       <c r="G75" t="n">
-        <v>216.5533333333334</v>
+        <v>-20832171.62744212</v>
       </c>
       <c r="H75" t="n">
-        <v>215.198333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>212</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3345,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="C76" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="D76" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="E76" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="F76" t="n">
-        <v>444.5956</v>
+        <v>3717</v>
       </c>
       <c r="G76" t="n">
-        <v>216.4600000000001</v>
+        <v>-20835888.62744212</v>
       </c>
       <c r="H76" t="n">
-        <v>215.2616666666663</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>212</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3386,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="C77" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="D77" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="E77" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="F77" t="n">
-        <v>3895.679</v>
+        <v>52.2554</v>
       </c>
       <c r="G77" t="n">
-        <v>216.3666666666668</v>
+        <v>-20835888.62744212</v>
       </c>
       <c r="H77" t="n">
-        <v>215.3249999999996</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>212</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3427,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="C78" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="D78" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="E78" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="F78" t="n">
-        <v>3079.8548</v>
+        <v>19934.5204</v>
       </c>
       <c r="G78" t="n">
-        <v>216.3000000000001</v>
+        <v>-20855823.14784212</v>
       </c>
       <c r="H78" t="n">
-        <v>215.388333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>212</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3468,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>215.5</v>
+        <v>216.9</v>
       </c>
       <c r="C79" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="D79" t="n">
-        <v>215.5</v>
+        <v>216.9</v>
       </c>
       <c r="E79" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1516.6531</v>
+        <v>12097.3056</v>
       </c>
       <c r="G79" t="n">
-        <v>216.2733333333334</v>
+        <v>-20867920.45344212</v>
       </c>
       <c r="H79" t="n">
-        <v>215.4449999999996</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>212</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3509,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="C80" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="D80" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="E80" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="F80" t="n">
-        <v>459.1864</v>
+        <v>2.31</v>
       </c>
       <c r="G80" t="n">
-        <v>216.1866666666668</v>
+        <v>-20867918.14344212</v>
       </c>
       <c r="H80" t="n">
-        <v>215.4899999999996</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>212</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3550,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="C81" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="D81" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="E81" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="F81" t="n">
-        <v>298.1799</v>
+        <v>105.0675</v>
       </c>
       <c r="G81" t="n">
-        <v>216.1866666666668</v>
+        <v>-20868023.21094212</v>
       </c>
       <c r="H81" t="n">
-        <v>215.5549999999996</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>212</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3591,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="C82" t="n">
-        <v>216.8</v>
+        <v>215.8</v>
       </c>
       <c r="D82" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="E82" t="n">
-        <v>216.8</v>
+        <v>215.8</v>
       </c>
       <c r="F82" t="n">
-        <v>198.6704</v>
+        <v>9538.068600000001</v>
       </c>
       <c r="G82" t="n">
-        <v>216.1800000000001</v>
+        <v>-20877561.27954211</v>
       </c>
       <c r="H82" t="n">
-        <v>215.6099999999996</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>212</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3632,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>216</v>
+        <v>215.7</v>
       </c>
       <c r="C83" t="n">
-        <v>215.7</v>
+        <v>216.7</v>
       </c>
       <c r="D83" t="n">
-        <v>216</v>
+        <v>216.7</v>
       </c>
       <c r="E83" t="n">
         <v>215.7</v>
       </c>
       <c r="F83" t="n">
-        <v>10190.7399</v>
+        <v>1377.2863</v>
       </c>
       <c r="G83" t="n">
-        <v>216.1000000000001</v>
+        <v>-20876183.99324211</v>
       </c>
       <c r="H83" t="n">
-        <v>215.6399999999996</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>212</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3673,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="C84" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="D84" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="E84" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="F84" t="n">
-        <v>260.0553</v>
+        <v>227.3099</v>
       </c>
       <c r="G84" t="n">
-        <v>216.02</v>
+        <v>-20876411.30314212</v>
       </c>
       <c r="H84" t="n">
-        <v>215.6699999999996</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>212</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3714,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="C85" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="D85" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="E85" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="F85" t="n">
-        <v>201.2383</v>
+        <v>6105</v>
       </c>
       <c r="G85" t="n">
-        <v>215.9400000000001</v>
+        <v>-20876411.30314212</v>
       </c>
       <c r="H85" t="n">
-        <v>215.6999999999996</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>212</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3755,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>216.7</v>
+        <v>215</v>
       </c>
       <c r="C86" t="n">
-        <v>217.8</v>
+        <v>215</v>
       </c>
       <c r="D86" t="n">
-        <v>217.8</v>
+        <v>215</v>
       </c>
       <c r="E86" t="n">
-        <v>216.7</v>
+        <v>215</v>
       </c>
       <c r="F86" t="n">
-        <v>22500</v>
+        <v>2264.11</v>
       </c>
       <c r="G86" t="n">
-        <v>216.0666666666667</v>
+        <v>-20876411.30314212</v>
       </c>
       <c r="H86" t="n">
-        <v>215.763333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>212</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,24 +3808,27 @@
         <v>216</v>
       </c>
       <c r="F87" t="n">
-        <v>2157.25</v>
+        <v>2.32</v>
       </c>
       <c r="G87" t="n">
-        <v>216.0733333333334</v>
+        <v>-20876408.98314212</v>
       </c>
       <c r="H87" t="n">
-        <v>215.7966666666663</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>212</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3837,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="C88" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="D88" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="E88" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="F88" t="n">
-        <v>191</v>
+        <v>3812.2035</v>
       </c>
       <c r="G88" t="n">
-        <v>216.0866666666667</v>
+        <v>-20872596.77964212</v>
       </c>
       <c r="H88" t="n">
-        <v>215.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>212</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3878,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="C89" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="D89" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="E89" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="F89" t="n">
-        <v>880.186</v>
+        <v>5258.2651</v>
       </c>
       <c r="G89" t="n">
-        <v>216.0733333333334</v>
+        <v>-20872596.77964212</v>
       </c>
       <c r="H89" t="n">
-        <v>215.873333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>212</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3919,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>215.1</v>
+        <v>217</v>
       </c>
       <c r="C90" t="n">
-        <v>215.1</v>
+        <v>217.3</v>
       </c>
       <c r="D90" t="n">
-        <v>215.1</v>
+        <v>217.3</v>
       </c>
       <c r="E90" t="n">
-        <v>215.1</v>
+        <v>217</v>
       </c>
       <c r="F90" t="n">
-        <v>459.1865</v>
+        <v>4771.6339</v>
       </c>
       <c r="G90" t="n">
-        <v>216.02</v>
+        <v>-20867825.14574211</v>
       </c>
       <c r="H90" t="n">
-        <v>215.888333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>212</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,37 +3960,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="C91" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="D91" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="E91" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="F91" t="n">
-        <v>25.5533</v>
+        <v>2345</v>
       </c>
       <c r="G91" t="n">
-        <v>215.9733333333333</v>
+        <v>-20867825.14574211</v>
       </c>
       <c r="H91" t="n">
-        <v>215.8949999999997</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>212</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="92">
@@ -4162,36 +4001,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="C92" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="D92" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="E92" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>499.8584</v>
       </c>
       <c r="G92" t="n">
-        <v>215.9266666666666</v>
+        <v>-20868325.00414211</v>
       </c>
       <c r="H92" t="n">
-        <v>215.9066666666664</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4036,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>215.1</v>
+        <v>215.9</v>
       </c>
       <c r="C93" t="n">
-        <v>215.1</v>
+        <v>215.9</v>
       </c>
       <c r="D93" t="n">
-        <v>215.2</v>
+        <v>215.9</v>
       </c>
       <c r="E93" t="n">
-        <v>215.1</v>
+        <v>215.9</v>
       </c>
       <c r="F93" t="n">
-        <v>8207.1937</v>
+        <v>284.0344</v>
       </c>
       <c r="G93" t="n">
-        <v>215.8733333333333</v>
+        <v>-20868609.03854211</v>
       </c>
       <c r="H93" t="n">
-        <v>215.9166666666664</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4071,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="C94" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="D94" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="E94" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="F94" t="n">
-        <v>4376.7368</v>
+        <v>814.026</v>
       </c>
       <c r="G94" t="n">
-        <v>215.8333333333333</v>
+        <v>-20867795.01254211</v>
       </c>
       <c r="H94" t="n">
-        <v>215.923333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4106,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="C95" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="D95" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="E95" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="F95" t="n">
         <v>2000</v>
       </c>
       <c r="G95" t="n">
-        <v>215.7933333333333</v>
+        <v>-20869795.01254211</v>
       </c>
       <c r="H95" t="n">
-        <v>215.9316666666664</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4141,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="C96" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="D96" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="E96" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>4213.8855</v>
       </c>
       <c r="G96" t="n">
-        <v>215.66</v>
+        <v>-20865581.12704211</v>
       </c>
       <c r="H96" t="n">
-        <v>215.923333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4176,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="C97" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="D97" t="n">
-        <v>214.9</v>
+        <v>217</v>
       </c>
       <c r="E97" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="F97" t="n">
-        <v>3498.0414</v>
+        <v>15836.5607</v>
       </c>
       <c r="G97" t="n">
-        <v>215.5266666666666</v>
+        <v>-20865581.12704211</v>
       </c>
       <c r="H97" t="n">
-        <v>215.9149999999997</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4211,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="C98" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="D98" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="E98" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="F98" t="n">
-        <v>4425.3672</v>
+        <v>4916.5621</v>
       </c>
       <c r="G98" t="n">
-        <v>215.4866666666667</v>
+        <v>-20865581.12704211</v>
       </c>
       <c r="H98" t="n">
-        <v>215.9116666666664</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4246,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>214.9</v>
+        <v>216</v>
       </c>
       <c r="C99" t="n">
-        <v>213.1</v>
+        <v>217</v>
       </c>
       <c r="D99" t="n">
-        <v>214.9</v>
+        <v>217</v>
       </c>
       <c r="E99" t="n">
-        <v>213.1</v>
+        <v>216</v>
       </c>
       <c r="F99" t="n">
-        <v>10220</v>
+        <v>29</v>
       </c>
       <c r="G99" t="n">
-        <v>215.3133333333333</v>
+        <v>-20865552.12704211</v>
       </c>
       <c r="H99" t="n">
-        <v>215.8749999999997</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4281,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>214.6</v>
+        <v>216</v>
       </c>
       <c r="C100" t="n">
-        <v>214.6</v>
+        <v>215.9</v>
       </c>
       <c r="D100" t="n">
-        <v>214.6</v>
+        <v>216</v>
       </c>
       <c r="E100" t="n">
-        <v>214.6</v>
+        <v>215.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1102.3255</v>
+        <v>1268.6109</v>
       </c>
       <c r="G100" t="n">
-        <v>215.2333333333333</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H100" t="n">
-        <v>215.8633333333331</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4316,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="C101" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="D101" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="E101" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="F101" t="n">
-        <v>3982.8305</v>
+        <v>2416.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>214.9333333333333</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H101" t="n">
-        <v>215.8299999999998</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4351,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="C102" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="D102" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="E102" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="F102" t="n">
-        <v>1178.4585</v>
+        <v>417.9999</v>
       </c>
       <c r="G102" t="n">
-        <v>214.8066666666666</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H102" t="n">
-        <v>215.8199999999997</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4386,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="C103" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="D103" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="E103" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="F103" t="n">
-        <v>5032.5399</v>
+        <v>1873.5625</v>
       </c>
       <c r="G103" t="n">
-        <v>214.6733333333333</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H103" t="n">
-        <v>215.7999999999998</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4421,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="C104" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="D104" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="E104" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="F104" t="n">
-        <v>3226.0927</v>
+        <v>3991.55</v>
       </c>
       <c r="G104" t="n">
-        <v>214.5266666666666</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H104" t="n">
-        <v>215.7699999999998</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4456,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="C105" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="D105" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="E105" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>444.5956</v>
       </c>
       <c r="G105" t="n">
-        <v>214.4066666666667</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H105" t="n">
-        <v>215.7366666666664</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4491,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>213.8</v>
+        <v>215.9</v>
       </c>
       <c r="C106" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="D106" t="n">
-        <v>213.8</v>
+        <v>215.9</v>
       </c>
       <c r="E106" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="F106" t="n">
-        <v>1500</v>
+        <v>3895.679</v>
       </c>
       <c r="G106" t="n">
-        <v>214.3066666666667</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H106" t="n">
-        <v>215.6899999999998</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4526,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="C107" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="D107" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="E107" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="F107" t="n">
-        <v>926.2778</v>
+        <v>3079.8548</v>
       </c>
       <c r="G107" t="n">
-        <v>214.2933333333334</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H107" t="n">
-        <v>215.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4561,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="C108" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="D108" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="E108" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="F108" t="n">
-        <v>73.7222</v>
+        <v>1516.6531</v>
       </c>
       <c r="G108" t="n">
-        <v>214.2866666666667</v>
+        <v>-20868337.39104211</v>
       </c>
       <c r="H108" t="n">
-        <v>215.6433333333331</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4596,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="C109" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="D109" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="E109" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="F109" t="n">
-        <v>145.7643</v>
+        <v>459.1864</v>
       </c>
       <c r="G109" t="n">
-        <v>214.3533333333334</v>
+        <v>-20867878.20464211</v>
       </c>
       <c r="H109" t="n">
-        <v>215.6449999999998</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4631,1048 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="C110" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="D110" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="E110" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="F110" t="n">
-        <v>360.5207</v>
+        <v>298.1799</v>
       </c>
       <c r="G110" t="n">
-        <v>214.3733333333334</v>
+        <v>-20867580.02474211</v>
       </c>
       <c r="H110" t="n">
-        <v>215.6449999999998</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>198.6704</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-20867580.02474211</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>216</v>
+      </c>
+      <c r="C112" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>216</v>
+      </c>
+      <c r="E112" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10190.7399</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-20877770.76464211</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>260.0553</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-20877770.76464211</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>201.2383</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-20877569.52634211</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-20855069.52634211</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>216</v>
+      </c>
+      <c r="C116" t="n">
+        <v>216</v>
+      </c>
+      <c r="D116" t="n">
+        <v>216</v>
+      </c>
+      <c r="E116" t="n">
+        <v>216</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2157.25</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-20857226.77634211</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>191</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-20857035.77634211</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>880.186</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-20857915.96234211</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>459.1865</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-20858375.14884211</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25.5533</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-20858349.59554211</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-20858349.59554211</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8207.1937</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-20866556.78924211</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4376.7368</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-20870933.52604211</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>215</v>
+      </c>
+      <c r="C124" t="n">
+        <v>215</v>
+      </c>
+      <c r="D124" t="n">
+        <v>215</v>
+      </c>
+      <c r="E124" t="n">
+        <v>215</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-20868933.52604211</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-20870933.52604211</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3498.0414</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-20870933.52604211</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4425.3672</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-20866508.15884212</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10220</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-20876728.15884212</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1102.3255</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-20875625.83334212</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3982.8305</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-20879608.66384212</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1178.4585</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-20878430.20534211</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5032.5399</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-20878430.20534211</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3226.0927</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-20881656.29804211</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-20886656.29804211</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>213.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>213.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-20885156.29804211</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>215</v>
+      </c>
+      <c r="C136" t="n">
+        <v>215</v>
+      </c>
+      <c r="D136" t="n">
+        <v>215</v>
+      </c>
+      <c r="E136" t="n">
+        <v>215</v>
+      </c>
+      <c r="F136" t="n">
+        <v>926.2778</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-20884230.02024211</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>215</v>
+      </c>
+      <c r="C137" t="n">
+        <v>215</v>
+      </c>
+      <c r="D137" t="n">
+        <v>215</v>
+      </c>
+      <c r="E137" t="n">
+        <v>215</v>
+      </c>
+      <c r="F137" t="n">
+        <v>73.7222</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-20884230.02024211</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>145.7643</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-20884084.25594211</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>360.5207</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-20884444.77664211</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1166,6 +1191,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1207,6 +1233,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,6 +1275,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1289,6 +1317,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1330,6 +1359,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1371,6 +1401,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,6 +1443,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1453,6 +1485,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1494,6 +1527,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1535,6 +1569,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1576,6 +1611,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1617,6 +1653,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1658,6 +1695,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1699,6 +1737,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1740,6 +1779,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1781,6 +1821,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1822,6 +1863,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1863,6 +1905,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1904,6 +1947,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1945,6 +1989,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1986,6 +2031,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2027,6 +2073,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2068,6 +2115,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2109,6 +2157,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2150,6 +2199,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2191,6 +2241,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2232,6 +2283,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2273,6 +2325,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2314,6 +2367,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2355,6 +2409,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2396,6 +2451,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2437,6 +2493,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2478,6 +2535,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2519,6 +2577,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2560,6 +2619,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2601,6 +2661,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2642,6 +2703,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2683,6 +2745,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2724,6 +2787,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2765,6 +2829,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2806,6 +2871,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2847,6 +2913,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2888,6 +2955,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2929,6 +2997,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2970,6 +3039,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3011,6 +3081,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3052,6 +3123,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3093,6 +3165,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3134,6 +3207,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3175,6 +3249,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3216,6 +3291,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3257,6 +3333,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3298,6 +3375,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3339,6 +3417,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3380,6 +3459,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3421,6 +3501,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3462,6 +3543,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3503,6 +3585,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3544,6 +3627,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3571,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
@@ -3579,11 +3663,14 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>1.013867924528302</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.020982355746304</v>
       </c>
     </row>
     <row r="82">
@@ -3615,17 +3702,12 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>212</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3656,17 +3738,12 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>212</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3697,17 +3774,12 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>212</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3738,17 +3810,12 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>212</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3779,17 +3846,12 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>212</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3820,17 +3882,12 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>212</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3861,17 +3918,12 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>212</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3899,20 +3951,15 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>212</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3940,20 +3987,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>212</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3984,17 +4026,12 @@
         <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>212</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>1.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4030,6 +4067,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4065,6 +4103,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4092,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4100,6 +4139,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4135,6 +4175,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4170,6 +4211,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4205,6 +4247,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4240,6 +4283,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4275,6 +4319,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4310,6 +4355,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4337,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4345,6 +4391,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4372,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4380,6 +4427,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4407,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4415,6 +4463,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4442,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4450,6 +4499,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4477,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4485,6 +4535,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4512,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4520,6 +4571,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4547,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4555,6 +4607,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4582,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4590,6 +4643,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4617,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4625,6 +4679,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4652,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4660,6 +4715,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4695,6 +4751,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4730,6 +4787,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4757,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4765,6 +4823,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4792,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4800,6 +4859,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4827,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4835,6 +4895,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4870,6 +4931,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4897,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4905,6 +4967,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4932,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4940,6 +5003,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4967,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4975,6 +5039,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5010,6 +5075,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5045,6 +5111,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5080,6 +5147,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5115,6 +5183,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5150,6 +5219,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5185,6 +5255,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5220,6 +5291,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5255,6 +5327,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5290,6 +5363,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5325,6 +5399,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5360,6 +5435,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5395,6 +5471,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5430,6 +5507,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5465,6 +5543,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5500,6 +5579,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5535,6 +5615,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5570,6 +5651,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5605,6 +5687,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5640,6 +5723,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5667,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5675,6 +5759,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>214.1</v>
+        <v>211.7</v>
       </c>
       <c r="C2" t="n">
-        <v>214.1</v>
+        <v>211.7</v>
       </c>
       <c r="D2" t="n">
-        <v>214.1</v>
+        <v>211.7</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1</v>
+        <v>211.7</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>55.2532</v>
       </c>
       <c r="G2" t="n">
-        <v>-135898.1007733898</v>
+        <v>-162012.4813733898</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" t="n">
-        <v>213.8</v>
+        <v>212</v>
       </c>
       <c r="D3" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" t="n">
-        <v>213.8</v>
+        <v>212</v>
       </c>
       <c r="F3" t="n">
-        <v>6703.6046</v>
+        <v>10.0171</v>
       </c>
       <c r="G3" t="n">
-        <v>-142601.7053733898</v>
+        <v>-162002.4642733898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>212.3</v>
+        <v>212</v>
       </c>
       <c r="C4" t="n">
-        <v>212.3</v>
+        <v>211.4</v>
       </c>
       <c r="D4" t="n">
-        <v>212.3</v>
+        <v>212</v>
       </c>
       <c r="E4" t="n">
-        <v>212.3</v>
+        <v>211.4</v>
       </c>
       <c r="F4" t="n">
-        <v>192.4899</v>
+        <v>6476.2328</v>
       </c>
       <c r="G4" t="n">
-        <v>-142794.1952733898</v>
+        <v>-168478.6970733898</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>212.3</v>
+        <v>211.5</v>
       </c>
       <c r="C5" t="n">
-        <v>212.3</v>
+        <v>211.5</v>
       </c>
       <c r="D5" t="n">
-        <v>212.3</v>
+        <v>211.5</v>
       </c>
       <c r="E5" t="n">
-        <v>212.3</v>
+        <v>211.5</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>3613</v>
       </c>
       <c r="G5" t="n">
-        <v>-142794.1952733898</v>
+        <v>-164865.6970733898</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>213.4</v>
+        <v>211.5</v>
       </c>
       <c r="C6" t="n">
-        <v>211.8</v>
+        <v>211.5</v>
       </c>
       <c r="D6" t="n">
-        <v>213.6</v>
+        <v>211.5</v>
       </c>
       <c r="E6" t="n">
-        <v>211.8</v>
+        <v>211.5</v>
       </c>
       <c r="F6" t="n">
-        <v>20567981.2262</v>
+        <v>39.8067</v>
       </c>
       <c r="G6" t="n">
-        <v>-20710775.42147339</v>
+        <v>-164865.6970733898</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>211.8</v>
+        <v>211.5</v>
       </c>
       <c r="C7" t="n">
         <v>211.5</v>
       </c>
       <c r="D7" t="n">
-        <v>211.8</v>
+        <v>211.5</v>
       </c>
       <c r="E7" t="n">
         <v>211.5</v>
       </c>
       <c r="F7" t="n">
-        <v>53922.0844</v>
+        <v>2038.9818</v>
       </c>
       <c r="G7" t="n">
-        <v>-20764697.50587339</v>
+        <v>-164865.6970733898</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>211.5</v>
       </c>
       <c r="F8" t="n">
-        <v>40865.7759</v>
+        <v>1315.6896</v>
       </c>
       <c r="G8" t="n">
-        <v>-20764697.50587339</v>
+        <v>-164865.6970733898</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="C9" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="D9" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="E9" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="F9" t="n">
-        <v>5384.075</v>
+        <v>2845.7588</v>
       </c>
       <c r="G9" t="n">
-        <v>-20764697.50587339</v>
+        <v>-162019.9382733898</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="C10" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="D10" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="E10" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="F10" t="n">
-        <v>4955.0349</v>
+        <v>13.926</v>
       </c>
       <c r="G10" t="n">
-        <v>-20764697.50587339</v>
+        <v>-162019.9382733898</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="C11" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="D11" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="E11" t="n">
-        <v>211.5</v>
+        <v>212.2</v>
       </c>
       <c r="F11" t="n">
-        <v>8661.3104</v>
+        <v>140.3152</v>
       </c>
       <c r="G11" t="n">
-        <v>-20764697.50587339</v>
+        <v>-162019.9382733898</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>211.4</v>
+        <v>213.8</v>
       </c>
       <c r="C12" t="n">
-        <v>213.1</v>
+        <v>213.8</v>
       </c>
       <c r="D12" t="n">
-        <v>213.3</v>
+        <v>213.8</v>
       </c>
       <c r="E12" t="n">
-        <v>211.4</v>
+        <v>213.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1045</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="n">
-        <v>-20763652.50587339</v>
+        <v>-158019.9382733898</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>211.2</v>
+        <v>214.4</v>
       </c>
       <c r="C13" t="n">
-        <v>211</v>
+        <v>214.4</v>
       </c>
       <c r="D13" t="n">
-        <v>211.2</v>
+        <v>214.4</v>
       </c>
       <c r="E13" t="n">
-        <v>211</v>
+        <v>214.4</v>
       </c>
       <c r="F13" t="n">
-        <v>16401.4645</v>
+        <v>1095.9068</v>
       </c>
       <c r="G13" t="n">
-        <v>-20780053.97037338</v>
+        <v>-156924.0314733898</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210.9</v>
+        <v>214.7</v>
       </c>
       <c r="C14" t="n">
-        <v>210.7</v>
+        <v>213.8</v>
       </c>
       <c r="D14" t="n">
-        <v>210.9</v>
+        <v>214.7</v>
       </c>
       <c r="E14" t="n">
-        <v>210.7</v>
+        <v>213.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2695.7599</v>
+        <v>3832</v>
       </c>
       <c r="G14" t="n">
-        <v>-20782749.73027338</v>
+        <v>-160756.0314733898</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210.5</v>
+        <v>214.7</v>
       </c>
       <c r="C15" t="n">
-        <v>209.9</v>
+        <v>214.7</v>
       </c>
       <c r="D15" t="n">
-        <v>210.5</v>
+        <v>214.7</v>
       </c>
       <c r="E15" t="n">
-        <v>209.9</v>
+        <v>214.7</v>
       </c>
       <c r="F15" t="n">
-        <v>33167.7718</v>
+        <v>4505</v>
       </c>
       <c r="G15" t="n">
-        <v>-20815917.50207338</v>
+        <v>-156251.0314733898</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>209.9</v>
+        <v>214.8</v>
       </c>
       <c r="C16" t="n">
-        <v>209.8</v>
+        <v>214.8</v>
       </c>
       <c r="D16" t="n">
-        <v>209.9</v>
+        <v>214.8</v>
       </c>
       <c r="E16" t="n">
-        <v>209.8</v>
+        <v>214.8</v>
       </c>
       <c r="F16" t="n">
-        <v>14001.9093</v>
+        <v>26000</v>
       </c>
       <c r="G16" t="n">
-        <v>-20829919.41137338</v>
+        <v>-130251.0314733898</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>209.8</v>
+        <v>214.7</v>
       </c>
       <c r="C17" t="n">
-        <v>209.7</v>
+        <v>214</v>
       </c>
       <c r="D17" t="n">
-        <v>209.8</v>
+        <v>214.7</v>
       </c>
       <c r="E17" t="n">
-        <v>209.7</v>
+        <v>214</v>
       </c>
       <c r="F17" t="n">
-        <v>7625.2669</v>
+        <v>15400</v>
       </c>
       <c r="G17" t="n">
-        <v>-20837544.67827338</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>209.7</v>
+        <v>214</v>
       </c>
       <c r="C18" t="n">
-        <v>209.7</v>
+        <v>214</v>
       </c>
       <c r="D18" t="n">
-        <v>209.7</v>
+        <v>214</v>
       </c>
       <c r="E18" t="n">
-        <v>209.7</v>
+        <v>214</v>
       </c>
       <c r="F18" t="n">
-        <v>52011.204</v>
+        <v>2116.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-20837544.67827338</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>211.7</v>
+        <v>214</v>
       </c>
       <c r="C19" t="n">
-        <v>211.7</v>
+        <v>214</v>
       </c>
       <c r="D19" t="n">
-        <v>211.7</v>
+        <v>214</v>
       </c>
       <c r="E19" t="n">
-        <v>211.7</v>
+        <v>214</v>
       </c>
       <c r="F19" t="n">
-        <v>254.5509</v>
+        <v>4221.2605</v>
       </c>
       <c r="G19" t="n">
-        <v>-20837290.12737338</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="C20" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="D20" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="E20" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="F20" t="n">
-        <v>3498.04143126177</v>
+        <v>1498</v>
       </c>
       <c r="G20" t="n">
-        <v>-20833792.08594212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="C21" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D21" t="n">
-        <v>212.2</v>
+        <v>214</v>
       </c>
       <c r="E21" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F21" t="n">
-        <v>6535.4398</v>
+        <v>305.13</v>
       </c>
       <c r="G21" t="n">
-        <v>-20840327.52574212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,35 +1158,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="C22" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="D22" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="E22" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>5234.8884</v>
       </c>
       <c r="G22" t="n">
-        <v>-20840317.52574212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>212</v>
-      </c>
-      <c r="K22" t="n">
-        <v>212</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1198,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="C23" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D23" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="E23" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F23" t="n">
-        <v>11522.7418</v>
+        <v>7415.5143</v>
       </c>
       <c r="G23" t="n">
-        <v>-20851840.26754212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1222,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>212</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1240,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C24" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D24" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E24" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F24" t="n">
-        <v>14.5626</v>
+        <v>600</v>
       </c>
       <c r="G24" t="n">
-        <v>-20851825.70494212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1264,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>212</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1282,38 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="C25" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="D25" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="E25" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="F25" t="n">
-        <v>14.1042</v>
+        <v>5820</v>
       </c>
       <c r="G25" t="n">
-        <v>-20851811.60074212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>212</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1324,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="C26" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="D26" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="E26" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="F26" t="n">
-        <v>18200.8385</v>
+        <v>1600</v>
       </c>
       <c r="G26" t="n">
-        <v>-20833610.76224212</v>
+        <v>-145651.0314733898</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1348,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>212</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1366,38 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="C27" t="n">
-        <v>212.4</v>
+        <v>214.1</v>
       </c>
       <c r="D27" t="n">
-        <v>212.4</v>
+        <v>214.1</v>
       </c>
       <c r="E27" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="F27" t="n">
-        <v>4210.9984</v>
+        <v>7787</v>
       </c>
       <c r="G27" t="n">
-        <v>-20837821.76064212</v>
+        <v>-137864.0314733898</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>212</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>212.2</v>
+        <v>214.1</v>
       </c>
       <c r="C28" t="n">
-        <v>212.2</v>
+        <v>214</v>
       </c>
       <c r="D28" t="n">
-        <v>212.2</v>
+        <v>214.1</v>
       </c>
       <c r="E28" t="n">
-        <v>212.2</v>
+        <v>214</v>
       </c>
       <c r="F28" t="n">
-        <v>1175.1911</v>
+        <v>8034.0693</v>
       </c>
       <c r="G28" t="n">
-        <v>-20838996.95174212</v>
+        <v>-145898.1007733898</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1432,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>212</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1450,38 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="C29" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="D29" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="E29" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="F29" t="n">
-        <v>142.4468</v>
+        <v>4561.9144</v>
       </c>
       <c r="G29" t="n">
-        <v>-20838854.50494212</v>
+        <v>-145898.1007733898</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>212</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1492,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="C30" t="n">
-        <v>212.5</v>
+        <v>214</v>
       </c>
       <c r="D30" t="n">
-        <v>212.5</v>
+        <v>214</v>
       </c>
       <c r="E30" t="n">
-        <v>212.4</v>
+        <v>214</v>
       </c>
       <c r="F30" t="n">
-        <v>1194.4491</v>
+        <v>921.9315</v>
       </c>
       <c r="G30" t="n">
-        <v>-20837660.05584212</v>
+        <v>-145898.1007733898</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1516,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>212</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1534,38 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>212.5</v>
+        <v>214.1</v>
       </c>
       <c r="C31" t="n">
-        <v>212.6</v>
+        <v>214.1</v>
       </c>
       <c r="D31" t="n">
-        <v>212.6</v>
+        <v>214.1</v>
       </c>
       <c r="E31" t="n">
-        <v>212.5</v>
+        <v>214.1</v>
       </c>
       <c r="F31" t="n">
-        <v>445.632</v>
+        <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>-20837214.42384212</v>
+        <v>-135898.1007733898</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>212</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1576,38 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="C32" t="n">
-        <v>212.6</v>
+        <v>213.8</v>
       </c>
       <c r="D32" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="E32" t="n">
-        <v>212.6</v>
+        <v>213.8</v>
       </c>
       <c r="F32" t="n">
-        <v>238.5715</v>
+        <v>6703.6046</v>
       </c>
       <c r="G32" t="n">
-        <v>-20837214.42384212</v>
+        <v>-142601.7053733898</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>212</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1618,38 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="C33" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="D33" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="E33" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="F33" t="n">
-        <v>3516.4819</v>
+        <v>192.4899</v>
       </c>
       <c r="G33" t="n">
-        <v>-20837214.42384212</v>
+        <v>-142794.1952733898</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>212</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1660,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="C34" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="D34" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="E34" t="n">
-        <v>212.6</v>
+        <v>212.3</v>
       </c>
       <c r="F34" t="n">
-        <v>17804.4069</v>
+        <v>21</v>
       </c>
       <c r="G34" t="n">
-        <v>-20837214.42384212</v>
+        <v>-142794.1952733898</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1684,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>212</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1702,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>212.2</v>
+        <v>213.4</v>
       </c>
       <c r="C35" t="n">
-        <v>212</v>
+        <v>211.8</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2</v>
+        <v>213.6</v>
       </c>
       <c r="E35" t="n">
-        <v>212</v>
+        <v>211.8</v>
       </c>
       <c r="F35" t="n">
-        <v>14500.9898</v>
+        <v>20567981.2262</v>
       </c>
       <c r="G35" t="n">
-        <v>-20851715.41364212</v>
+        <v>-20710775.42147339</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1726,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>212</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1744,38 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>212</v>
+        <v>211.8</v>
       </c>
       <c r="C36" t="n">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="D36" t="n">
-        <v>213</v>
+        <v>211.8</v>
       </c>
       <c r="E36" t="n">
-        <v>212</v>
+        <v>211.5</v>
       </c>
       <c r="F36" t="n">
-        <v>2509.0102</v>
+        <v>53922.0844</v>
       </c>
       <c r="G36" t="n">
-        <v>-20849206.40344211</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>212</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1786,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>211.7</v>
+        <v>211.5</v>
       </c>
       <c r="C37" t="n">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="D37" t="n">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="E37" t="n">
-        <v>211.7</v>
+        <v>211.5</v>
       </c>
       <c r="F37" t="n">
-        <v>7200</v>
+        <v>40865.7759</v>
       </c>
       <c r="G37" t="n">
-        <v>-20849206.40344211</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1810,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>212</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1828,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="D38" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="E38" t="n">
-        <v>211.9</v>
+        <v>211.5</v>
       </c>
       <c r="F38" t="n">
-        <v>6849.5817</v>
+        <v>5384.075</v>
       </c>
       <c r="G38" t="n">
-        <v>-20856055.98514212</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1852,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>212</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1870,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="C39" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="D39" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="E39" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>4955.0349</v>
       </c>
       <c r="G39" t="n">
-        <v>-20855055.98514212</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1894,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>212</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1912,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="C40" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="D40" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="E40" t="n">
-        <v>212.4</v>
+        <v>211.5</v>
       </c>
       <c r="F40" t="n">
-        <v>2982.0513</v>
+        <v>8661.3104</v>
       </c>
       <c r="G40" t="n">
-        <v>-20855055.98514212</v>
+        <v>-20764697.50587339</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1936,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>212</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1954,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>212.1</v>
+        <v>211.4</v>
       </c>
       <c r="C41" t="n">
-        <v>212.1</v>
+        <v>213.1</v>
       </c>
       <c r="D41" t="n">
-        <v>212.1</v>
+        <v>213.3</v>
       </c>
       <c r="E41" t="n">
-        <v>212.1</v>
+        <v>211.4</v>
       </c>
       <c r="F41" t="n">
-        <v>3359.0406</v>
+        <v>1045</v>
       </c>
       <c r="G41" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20763652.50587339</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1978,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>212</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1996,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>212.1</v>
+        <v>211.2</v>
       </c>
       <c r="C42" t="n">
-        <v>212.1</v>
+        <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>212.1</v>
+        <v>211.2</v>
       </c>
       <c r="E42" t="n">
-        <v>212.1</v>
+        <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>12001.6057</v>
+        <v>16401.4645</v>
       </c>
       <c r="G42" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20780053.97037338</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2020,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>212</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>212.1</v>
+        <v>210.9</v>
       </c>
       <c r="C43" t="n">
-        <v>212.1</v>
+        <v>210.7</v>
       </c>
       <c r="D43" t="n">
-        <v>212.1</v>
+        <v>210.9</v>
       </c>
       <c r="E43" t="n">
-        <v>212.1</v>
+        <v>210.7</v>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>2695.7599</v>
       </c>
       <c r="G43" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20782749.73027338</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2062,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>212</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2080,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>212.1</v>
+        <v>210.5</v>
       </c>
       <c r="C44" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="D44" t="n">
-        <v>212.1</v>
+        <v>210.5</v>
       </c>
       <c r="E44" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="F44" t="n">
-        <v>2600</v>
+        <v>33167.7718</v>
       </c>
       <c r="G44" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20815917.50207338</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2104,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>212</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2122,36 +1986,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="C45" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="D45" t="n">
-        <v>212.1</v>
+        <v>209.9</v>
       </c>
       <c r="E45" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>14001.9093</v>
       </c>
       <c r="G45" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20829919.41137338</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>212</v>
-      </c>
+      <c r="J45" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2164,33 +2028,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="C46" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="D46" t="n">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="E46" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="F46" t="n">
-        <v>5990</v>
+        <v>7625.2669</v>
       </c>
       <c r="G46" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20837544.67827338</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>212</v>
-      </c>
+      <c r="J46" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,33 +2070,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="C47" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="D47" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="E47" t="n">
-        <v>212.1</v>
+        <v>209.7</v>
       </c>
       <c r="F47" t="n">
-        <v>505</v>
+        <v>52011.204</v>
       </c>
       <c r="G47" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20837544.67827338</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>212</v>
-      </c>
+      <c r="J47" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,33 +2112,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="C48" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="D48" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="E48" t="n">
-        <v>212.1</v>
+        <v>211.7</v>
       </c>
       <c r="F48" t="n">
-        <v>43.2393</v>
+        <v>254.5509</v>
       </c>
       <c r="G48" t="n">
-        <v>-20858415.02574212</v>
+        <v>-20837290.12737338</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>212</v>
-      </c>
+      <c r="J48" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,33 +2154,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="C49" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="D49" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="E49" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="F49" t="n">
-        <v>19566.9332</v>
+        <v>3498.04143126177</v>
       </c>
       <c r="G49" t="n">
-        <v>-20838848.09254212</v>
+        <v>-20833792.08594212</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>212</v>
-      </c>
+      <c r="J49" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,22 +2196,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>212.9</v>
+        <v>212.1</v>
       </c>
       <c r="C50" t="n">
-        <v>212.9</v>
+        <v>212</v>
       </c>
       <c r="D50" t="n">
-        <v>212.9</v>
+        <v>212.2</v>
       </c>
       <c r="E50" t="n">
-        <v>212.9</v>
+        <v>212</v>
       </c>
       <c r="F50" t="n">
-        <v>7131.9524</v>
+        <v>6535.4398</v>
       </c>
       <c r="G50" t="n">
-        <v>-20838848.09254212</v>
+        <v>-20840327.52574212</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2356,9 +2220,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>212</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,22 +2236,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="C51" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="D51" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="E51" t="n">
-        <v>213.5</v>
+        <v>212.1</v>
       </c>
       <c r="F51" t="n">
-        <v>707.4233</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-20838140.66924211</v>
+        <v>-20840317.52574212</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2398,9 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>212</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2416,22 +2276,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>213.9</v>
+        <v>212.1</v>
       </c>
       <c r="C52" t="n">
-        <v>213.9</v>
+        <v>211</v>
       </c>
       <c r="D52" t="n">
-        <v>213.9</v>
+        <v>212.1</v>
       </c>
       <c r="E52" t="n">
-        <v>213.9</v>
+        <v>211</v>
       </c>
       <c r="F52" t="n">
-        <v>12936</v>
+        <v>11522.7418</v>
       </c>
       <c r="G52" t="n">
-        <v>-20825204.66924211</v>
+        <v>-20851840.26754212</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2440,9 +2300,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>212</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,22 +2316,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="C53" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="D53" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E53" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="F53" t="n">
-        <v>18351.9503</v>
+        <v>14.5626</v>
       </c>
       <c r="G53" t="n">
-        <v>-20825204.66924211</v>
+        <v>-20851825.70494212</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2482,9 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>212</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,22 +2356,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="C54" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="D54" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="E54" t="n">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="F54" t="n">
-        <v>6468</v>
+        <v>14.1042</v>
       </c>
       <c r="G54" t="n">
-        <v>-20818736.66924211</v>
+        <v>-20851811.60074212</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2524,9 +2380,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>212</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,22 +2396,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="C55" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="D55" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="E55" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="F55" t="n">
-        <v>2320.7306</v>
+        <v>18200.8385</v>
       </c>
       <c r="G55" t="n">
-        <v>-20818736.66924211</v>
+        <v>-20833610.76224212</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2566,9 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>212</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2584,22 +2436,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>214</v>
+        <v>212.4</v>
       </c>
       <c r="C56" t="n">
-        <v>214</v>
+        <v>212.4</v>
       </c>
       <c r="D56" t="n">
-        <v>214.1</v>
+        <v>212.4</v>
       </c>
       <c r="E56" t="n">
-        <v>213.9</v>
+        <v>212.4</v>
       </c>
       <c r="F56" t="n">
-        <v>1175.5333</v>
+        <v>4210.9984</v>
       </c>
       <c r="G56" t="n">
-        <v>-20818736.66924211</v>
+        <v>-20837821.76064212</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2608,9 +2460,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>212</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2626,22 +2476,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="C57" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="D57" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="E57" t="n">
-        <v>213.9</v>
+        <v>212.2</v>
       </c>
       <c r="F57" t="n">
-        <v>12200.8806</v>
+        <v>1175.1911</v>
       </c>
       <c r="G57" t="n">
-        <v>-20830937.54984212</v>
+        <v>-20838996.95174212</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2650,9 +2500,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>212</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,22 +2516,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="C58" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="D58" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="E58" t="n">
-        <v>213.3</v>
+        <v>212.4</v>
       </c>
       <c r="F58" t="n">
-        <v>156.827</v>
+        <v>142.4468</v>
       </c>
       <c r="G58" t="n">
-        <v>-20831094.37684212</v>
+        <v>-20838854.50494212</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2692,9 +2540,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>212</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,22 +2556,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>214.2</v>
+        <v>212.4</v>
       </c>
       <c r="C59" t="n">
-        <v>214.2</v>
+        <v>212.5</v>
       </c>
       <c r="D59" t="n">
-        <v>214.2</v>
+        <v>212.5</v>
       </c>
       <c r="E59" t="n">
-        <v>214.2</v>
+        <v>212.4</v>
       </c>
       <c r="F59" t="n">
-        <v>525.7797</v>
+        <v>1194.4491</v>
       </c>
       <c r="G59" t="n">
-        <v>-20830568.59714212</v>
+        <v>-20837660.05584212</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2734,9 +2580,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>212</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,22 +2596,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>214.8</v>
+        <v>212.5</v>
       </c>
       <c r="C60" t="n">
-        <v>214.8</v>
+        <v>212.6</v>
       </c>
       <c r="D60" t="n">
-        <v>214.8</v>
+        <v>212.6</v>
       </c>
       <c r="E60" t="n">
-        <v>214.8</v>
+        <v>212.5</v>
       </c>
       <c r="F60" t="n">
-        <v>2.33</v>
+        <v>445.632</v>
       </c>
       <c r="G60" t="n">
-        <v>-20830566.26714212</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2776,9 +2620,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>212</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,22 +2636,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="C61" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="D61" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="E61" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="F61" t="n">
-        <v>320.096</v>
+        <v>238.5715</v>
       </c>
       <c r="G61" t="n">
-        <v>-20830886.36314212</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2818,9 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>212</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,22 +2676,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="C62" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="D62" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="E62" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="F62" t="n">
-        <v>554.1662</v>
+        <v>3516.4819</v>
       </c>
       <c r="G62" t="n">
-        <v>-20830886.36314212</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2860,9 +2700,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>212</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2878,22 +2716,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="C63" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="D63" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="E63" t="n">
-        <v>214.5</v>
+        <v>212.6</v>
       </c>
       <c r="F63" t="n">
-        <v>19438.7804</v>
+        <v>17804.4069</v>
       </c>
       <c r="G63" t="n">
-        <v>-20830886.36314212</v>
+        <v>-20837214.42384212</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2902,9 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>212</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,22 +2756,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>215</v>
+        <v>212.2</v>
       </c>
       <c r="C64" t="n">
-        <v>214.5</v>
+        <v>212</v>
       </c>
       <c r="D64" t="n">
-        <v>215</v>
+        <v>212.2</v>
       </c>
       <c r="E64" t="n">
-        <v>214.5</v>
+        <v>212</v>
       </c>
       <c r="F64" t="n">
-        <v>470.529</v>
+        <v>14500.9898</v>
       </c>
       <c r="G64" t="n">
-        <v>-20830886.36314212</v>
+        <v>-20851715.41364212</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2944,9 +2780,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>212</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,22 +2796,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>215.3</v>
+        <v>212</v>
       </c>
       <c r="C65" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="D65" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="E65" t="n">
-        <v>215.3</v>
+        <v>212</v>
       </c>
       <c r="F65" t="n">
-        <v>2.33</v>
+        <v>2509.0102</v>
       </c>
       <c r="G65" t="n">
-        <v>-20830884.03314212</v>
+        <v>-20849206.40344211</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2986,9 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>212</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,22 +2836,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>215.3</v>
+        <v>211.7</v>
       </c>
       <c r="C66" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="D66" t="n">
-        <v>215.3</v>
+        <v>213</v>
       </c>
       <c r="E66" t="n">
-        <v>215.3</v>
+        <v>211.7</v>
       </c>
       <c r="F66" t="n">
-        <v>1943.1566</v>
+        <v>7200</v>
       </c>
       <c r="G66" t="n">
-        <v>-20830884.03314212</v>
+        <v>-20849206.40344211</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3028,9 +2860,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>212</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,22 +2876,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="C67" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="D67" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="E67" t="n">
-        <v>215.3</v>
+        <v>211.9</v>
       </c>
       <c r="F67" t="n">
-        <v>1906.5718</v>
+        <v>6849.5817</v>
       </c>
       <c r="G67" t="n">
-        <v>-20830884.03314212</v>
+        <v>-20856055.98514212</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3070,9 +2900,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>212</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,22 +2916,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="C68" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="D68" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="E68" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="F68" t="n">
-        <v>336.4402</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-20830884.03314212</v>
+        <v>-20855055.98514212</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3112,9 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>212</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,22 +2956,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="C69" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="D69" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="E69" t="n">
-        <v>215.3</v>
+        <v>212.4</v>
       </c>
       <c r="F69" t="n">
-        <v>487.4236</v>
+        <v>2982.0513</v>
       </c>
       <c r="G69" t="n">
-        <v>-20830884.03314212</v>
+        <v>-20855055.98514212</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3154,9 +2980,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>212</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,22 +2996,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C70" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D70" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E70" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F70" t="n">
-        <v>4168.2504</v>
+        <v>3359.0406</v>
       </c>
       <c r="G70" t="n">
-        <v>-20830884.03314212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3196,9 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>212</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,22 +3036,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="C71" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="D71" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="E71" t="n">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="F71" t="n">
-        <v>1502.1535</v>
+        <v>12001.6057</v>
       </c>
       <c r="G71" t="n">
-        <v>-20832386.18664212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3238,9 +3060,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>212</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,22 +3076,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C72" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D72" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E72" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F72" t="n">
-        <v>212.2492</v>
+        <v>1200</v>
       </c>
       <c r="G72" t="n">
-        <v>-20832173.93744212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3280,9 +3100,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>212</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,22 +3116,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C73" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D73" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E73" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F73" t="n">
-        <v>14943.5781</v>
+        <v>2600</v>
       </c>
       <c r="G73" t="n">
-        <v>-20832173.93744212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3322,9 +3140,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>212</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,22 +3156,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="C74" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="D74" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="E74" t="n">
-        <v>215.3</v>
+        <v>212.1</v>
       </c>
       <c r="F74" t="n">
-        <v>281.6668</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>-20832173.93744212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3364,9 +3180,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>212</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,22 +3196,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="C75" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="D75" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="E75" t="n">
-        <v>216.5</v>
+        <v>212.1</v>
       </c>
       <c r="F75" t="n">
-        <v>2.31</v>
+        <v>5990</v>
       </c>
       <c r="G75" t="n">
-        <v>-20832171.62744212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3406,9 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>212</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,22 +3236,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="C76" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="D76" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="E76" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="F76" t="n">
-        <v>3717</v>
+        <v>505</v>
       </c>
       <c r="G76" t="n">
-        <v>-20835888.62744212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3448,9 +3260,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>212</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,22 +3276,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="C77" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="D77" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="E77" t="n">
-        <v>216.4</v>
+        <v>212.1</v>
       </c>
       <c r="F77" t="n">
-        <v>52.2554</v>
+        <v>43.2393</v>
       </c>
       <c r="G77" t="n">
-        <v>-20835888.62744212</v>
+        <v>-20858415.02574212</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3490,9 +3300,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>212</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,22 +3316,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="C78" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="D78" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="E78" t="n">
-        <v>215.8</v>
+        <v>212.9</v>
       </c>
       <c r="F78" t="n">
-        <v>19934.5204</v>
+        <v>19566.9332</v>
       </c>
       <c r="G78" t="n">
-        <v>-20855823.14784212</v>
+        <v>-20838848.09254212</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3532,9 +3340,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>212</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,22 +3356,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>216.9</v>
+        <v>212.9</v>
       </c>
       <c r="C79" t="n">
-        <v>215.3</v>
+        <v>212.9</v>
       </c>
       <c r="D79" t="n">
-        <v>216.9</v>
+        <v>212.9</v>
       </c>
       <c r="E79" t="n">
-        <v>215.3</v>
+        <v>212.9</v>
       </c>
       <c r="F79" t="n">
-        <v>12097.3056</v>
+        <v>7131.9524</v>
       </c>
       <c r="G79" t="n">
-        <v>-20867920.45344212</v>
+        <v>-20838848.09254212</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3574,9 +3380,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>212</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,22 +3396,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="C80" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="D80" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="E80" t="n">
-        <v>216.8</v>
+        <v>213.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2.31</v>
+        <v>707.4233</v>
       </c>
       <c r="G80" t="n">
-        <v>-20867918.14344212</v>
+        <v>-20838140.66924211</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3616,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>212</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3634,66 +3436,62 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="C81" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="D81" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="E81" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="F81" t="n">
-        <v>105.0675</v>
+        <v>12936</v>
       </c>
       <c r="G81" t="n">
-        <v>-20868023.21094212</v>
+        <v>-20825204.66924211</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>212</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1.013867924528302</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.020982355746304</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>216</v>
+        <v>213.9</v>
       </c>
       <c r="C82" t="n">
-        <v>215.8</v>
+        <v>213.9</v>
       </c>
       <c r="D82" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E82" t="n">
-        <v>215.8</v>
+        <v>213.9</v>
       </c>
       <c r="F82" t="n">
-        <v>9538.068600000001</v>
+        <v>18351.9503</v>
       </c>
       <c r="G82" t="n">
-        <v>-20877561.27954211</v>
+        <v>-20825204.66924211</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3703,7 +3501,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +3516,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>215.7</v>
+        <v>214</v>
       </c>
       <c r="C83" t="n">
-        <v>216.7</v>
+        <v>214</v>
       </c>
       <c r="D83" t="n">
-        <v>216.7</v>
+        <v>214</v>
       </c>
       <c r="E83" t="n">
-        <v>215.7</v>
+        <v>214</v>
       </c>
       <c r="F83" t="n">
-        <v>1377.2863</v>
+        <v>6468</v>
       </c>
       <c r="G83" t="n">
-        <v>-20876183.99324211</v>
+        <v>-20818736.66924211</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3739,7 +3541,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +3556,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C84" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E84" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F84" t="n">
-        <v>227.3099</v>
+        <v>2320.7306</v>
       </c>
       <c r="G84" t="n">
-        <v>-20876411.30314212</v>
+        <v>-20818736.66924211</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3775,7 +3581,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +3596,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D85" t="n">
-        <v>215</v>
+        <v>214.1</v>
       </c>
       <c r="E85" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="F85" t="n">
-        <v>6105</v>
+        <v>1175.5333</v>
       </c>
       <c r="G85" t="n">
-        <v>-20876411.30314212</v>
+        <v>-20818736.66924211</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3811,7 +3621,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +3636,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="C86" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="D86" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="E86" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2264.11</v>
+        <v>12200.8806</v>
       </c>
       <c r="G86" t="n">
-        <v>-20876411.30314212</v>
+        <v>-20830937.54984212</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3847,7 +3661,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +3676,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="C87" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="D87" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="E87" t="n">
-        <v>216</v>
+        <v>213.3</v>
       </c>
       <c r="F87" t="n">
-        <v>2.32</v>
+        <v>156.827</v>
       </c>
       <c r="G87" t="n">
-        <v>-20876408.98314212</v>
+        <v>-20831094.37684212</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3883,7 +3701,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +3716,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="C88" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="D88" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="E88" t="n">
-        <v>216.4</v>
+        <v>214.2</v>
       </c>
       <c r="F88" t="n">
-        <v>3812.2035</v>
+        <v>525.7797</v>
       </c>
       <c r="G88" t="n">
-        <v>-20872596.77964212</v>
+        <v>-20830568.59714212</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3919,7 +3741,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3930,32 +3756,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="C89" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="D89" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="E89" t="n">
-        <v>216.4</v>
+        <v>214.8</v>
       </c>
       <c r="F89" t="n">
-        <v>5258.2651</v>
+        <v>2.33</v>
       </c>
       <c r="G89" t="n">
-        <v>-20872596.77964212</v>
+        <v>-20830566.26714212</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3966,32 +3796,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>217</v>
+        <v>214.5</v>
       </c>
       <c r="C90" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="D90" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="E90" t="n">
-        <v>217</v>
+        <v>214.5</v>
       </c>
       <c r="F90" t="n">
-        <v>4771.6339</v>
+        <v>320.096</v>
       </c>
       <c r="G90" t="n">
-        <v>-20867825.14574211</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4002,32 +3836,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="C91" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="D91" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="E91" t="n">
-        <v>217.3</v>
+        <v>214.5</v>
       </c>
       <c r="F91" t="n">
-        <v>2345</v>
+        <v>554.1662</v>
       </c>
       <c r="G91" t="n">
-        <v>-20867825.14574211</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4038,32 +3876,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="C92" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="D92" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="E92" t="n">
-        <v>216.9</v>
+        <v>214.5</v>
       </c>
       <c r="F92" t="n">
-        <v>499.8584</v>
+        <v>19438.7804</v>
       </c>
       <c r="G92" t="n">
-        <v>-20868325.00414211</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4074,32 +3916,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>215.9</v>
+        <v>215</v>
       </c>
       <c r="C93" t="n">
-        <v>215.9</v>
+        <v>214.5</v>
       </c>
       <c r="D93" t="n">
-        <v>215.9</v>
+        <v>215</v>
       </c>
       <c r="E93" t="n">
-        <v>215.9</v>
+        <v>214.5</v>
       </c>
       <c r="F93" t="n">
-        <v>284.0344</v>
+        <v>470.529</v>
       </c>
       <c r="G93" t="n">
-        <v>-20868609.03854211</v>
+        <v>-20830886.36314212</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4110,32 +3956,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C94" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D94" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="E94" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F94" t="n">
-        <v>814.026</v>
+        <v>2.33</v>
       </c>
       <c r="G94" t="n">
-        <v>-20867795.01254211</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4146,32 +3996,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="C95" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="D95" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="E95" t="n">
-        <v>216.8</v>
+        <v>215.3</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>1943.1566</v>
       </c>
       <c r="G95" t="n">
-        <v>-20869795.01254211</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4182,32 +4036,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C96" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D96" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="E96" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F96" t="n">
-        <v>4213.8855</v>
+        <v>1906.5718</v>
       </c>
       <c r="G96" t="n">
-        <v>-20865581.12704211</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4218,32 +4076,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C97" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D97" t="n">
-        <v>217</v>
+        <v>215.3</v>
       </c>
       <c r="E97" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F97" t="n">
-        <v>15836.5607</v>
+        <v>336.4402</v>
       </c>
       <c r="G97" t="n">
-        <v>-20865581.12704211</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4254,32 +4116,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="C98" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="D98" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="E98" t="n">
-        <v>216.9</v>
+        <v>215.3</v>
       </c>
       <c r="F98" t="n">
-        <v>4916.5621</v>
+        <v>487.4236</v>
       </c>
       <c r="G98" t="n">
-        <v>-20865581.12704211</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4290,32 +4156,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>216</v>
+        <v>215.3</v>
       </c>
       <c r="C99" t="n">
-        <v>217</v>
+        <v>215.3</v>
       </c>
       <c r="D99" t="n">
-        <v>217</v>
+        <v>215.3</v>
       </c>
       <c r="E99" t="n">
-        <v>216</v>
+        <v>215.3</v>
       </c>
       <c r="F99" t="n">
-        <v>29</v>
+        <v>4168.2504</v>
       </c>
       <c r="G99" t="n">
-        <v>-20865552.12704211</v>
+        <v>-20830884.03314212</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4326,32 +4196,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>216</v>
+        <v>214.7</v>
       </c>
       <c r="C100" t="n">
-        <v>215.9</v>
+        <v>214.7</v>
       </c>
       <c r="D100" t="n">
-        <v>216</v>
+        <v>214.7</v>
       </c>
       <c r="E100" t="n">
-        <v>215.9</v>
+        <v>214.7</v>
       </c>
       <c r="F100" t="n">
-        <v>1268.6109</v>
+        <v>1502.1535</v>
       </c>
       <c r="G100" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20832386.18664212</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4362,32 +4236,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="C101" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="D101" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="E101" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="F101" t="n">
-        <v>2416.9999</v>
+        <v>212.2492</v>
       </c>
       <c r="G101" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20832173.93744212</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4398,32 +4276,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="C102" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="D102" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="E102" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="F102" t="n">
-        <v>417.9999</v>
+        <v>14943.5781</v>
       </c>
       <c r="G102" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20832173.93744212</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4434,32 +4316,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="C103" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="D103" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="E103" t="n">
-        <v>215.9</v>
+        <v>215.3</v>
       </c>
       <c r="F103" t="n">
-        <v>1873.5625</v>
+        <v>281.6668</v>
       </c>
       <c r="G103" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20832173.93744212</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4470,32 +4356,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="C104" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="D104" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="E104" t="n">
-        <v>215.9</v>
+        <v>216.5</v>
       </c>
       <c r="F104" t="n">
-        <v>3991.55</v>
+        <v>2.31</v>
       </c>
       <c r="G104" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20832171.62744212</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4506,32 +4396,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="C105" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="D105" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="E105" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="F105" t="n">
-        <v>444.5956</v>
+        <v>3717</v>
       </c>
       <c r="G105" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20835888.62744212</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4542,32 +4436,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="C106" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="D106" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="E106" t="n">
-        <v>215.9</v>
+        <v>216.4</v>
       </c>
       <c r="F106" t="n">
-        <v>3895.679</v>
+        <v>52.2554</v>
       </c>
       <c r="G106" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20835888.62744212</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4578,32 +4476,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="C107" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="D107" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="E107" t="n">
-        <v>215.9</v>
+        <v>215.8</v>
       </c>
       <c r="F107" t="n">
-        <v>3079.8548</v>
+        <v>19934.5204</v>
       </c>
       <c r="G107" t="n">
-        <v>-20866820.73794211</v>
+        <v>-20855823.14784212</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4614,32 +4516,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215.5</v>
+        <v>216.9</v>
       </c>
       <c r="C108" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="D108" t="n">
-        <v>215.5</v>
+        <v>216.9</v>
       </c>
       <c r="E108" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1516.6531</v>
+        <v>12097.3056</v>
       </c>
       <c r="G108" t="n">
-        <v>-20868337.39104211</v>
+        <v>-20867920.45344212</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4650,32 +4556,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="C109" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="D109" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="E109" t="n">
-        <v>215.6</v>
+        <v>216.8</v>
       </c>
       <c r="F109" t="n">
-        <v>459.1864</v>
+        <v>2.31</v>
       </c>
       <c r="G109" t="n">
-        <v>-20867878.20464211</v>
+        <v>-20867918.14344212</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4686,32 +4596,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="C110" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="D110" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="E110" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="F110" t="n">
-        <v>298.1799</v>
+        <v>105.0675</v>
       </c>
       <c r="G110" t="n">
-        <v>-20867580.02474211</v>
+        <v>-20868023.21094212</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4722,32 +4636,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="C111" t="n">
-        <v>216.8</v>
+        <v>215.8</v>
       </c>
       <c r="D111" t="n">
-        <v>216.8</v>
+        <v>216</v>
       </c>
       <c r="E111" t="n">
-        <v>216.8</v>
+        <v>215.8</v>
       </c>
       <c r="F111" t="n">
-        <v>198.6704</v>
+        <v>9538.068600000001</v>
       </c>
       <c r="G111" t="n">
-        <v>-20867580.02474211</v>
+        <v>-20877561.27954211</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4758,32 +4676,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>216</v>
+        <v>215.7</v>
       </c>
       <c r="C112" t="n">
-        <v>215.7</v>
+        <v>216.7</v>
       </c>
       <c r="D112" t="n">
-        <v>216</v>
+        <v>216.7</v>
       </c>
       <c r="E112" t="n">
         <v>215.7</v>
       </c>
       <c r="F112" t="n">
-        <v>10190.7399</v>
+        <v>1377.2863</v>
       </c>
       <c r="G112" t="n">
-        <v>-20877770.76464211</v>
+        <v>-20876183.99324211</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4794,32 +4716,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="C113" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="D113" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="E113" t="n">
-        <v>215.7</v>
+        <v>215</v>
       </c>
       <c r="F113" t="n">
-        <v>260.0553</v>
+        <v>227.3099</v>
       </c>
       <c r="G113" t="n">
-        <v>-20877770.76464211</v>
+        <v>-20876411.30314212</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4830,32 +4756,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="C114" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="D114" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="E114" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="F114" t="n">
-        <v>201.2383</v>
+        <v>6105</v>
       </c>
       <c r="G114" t="n">
-        <v>-20877569.52634211</v>
+        <v>-20876411.30314212</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4866,32 +4796,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>216.7</v>
+        <v>215</v>
       </c>
       <c r="C115" t="n">
-        <v>217.8</v>
+        <v>215</v>
       </c>
       <c r="D115" t="n">
-        <v>217.8</v>
+        <v>215</v>
       </c>
       <c r="E115" t="n">
-        <v>216.7</v>
+        <v>215</v>
       </c>
       <c r="F115" t="n">
-        <v>22500</v>
+        <v>2264.11</v>
       </c>
       <c r="G115" t="n">
-        <v>-20855069.52634211</v>
+        <v>-20876411.30314212</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4914,20 +4848,24 @@
         <v>216</v>
       </c>
       <c r="F116" t="n">
-        <v>2157.25</v>
+        <v>2.32</v>
       </c>
       <c r="G116" t="n">
-        <v>-20857226.77634211</v>
+        <v>-20876408.98314212</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4938,32 +4876,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="C117" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="D117" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="E117" t="n">
-        <v>216.1</v>
+        <v>216.4</v>
       </c>
       <c r="F117" t="n">
-        <v>191</v>
+        <v>3812.2035</v>
       </c>
       <c r="G117" t="n">
-        <v>-20857035.77634211</v>
+        <v>-20872596.77964212</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4974,32 +4916,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="C118" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="D118" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="E118" t="n">
-        <v>215.7</v>
+        <v>216.4</v>
       </c>
       <c r="F118" t="n">
-        <v>880.186</v>
+        <v>5258.2651</v>
       </c>
       <c r="G118" t="n">
-        <v>-20857915.96234211</v>
+        <v>-20872596.77964212</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5010,32 +4956,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>215.1</v>
+        <v>217</v>
       </c>
       <c r="C119" t="n">
-        <v>215.1</v>
+        <v>217.3</v>
       </c>
       <c r="D119" t="n">
-        <v>215.1</v>
+        <v>217.3</v>
       </c>
       <c r="E119" t="n">
-        <v>215.1</v>
+        <v>217</v>
       </c>
       <c r="F119" t="n">
-        <v>459.1865</v>
+        <v>4771.6339</v>
       </c>
       <c r="G119" t="n">
-        <v>-20858375.14884211</v>
+        <v>-20867825.14574211</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +4996,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="C120" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="D120" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="E120" t="n">
-        <v>215.2</v>
+        <v>217.3</v>
       </c>
       <c r="F120" t="n">
-        <v>25.5533</v>
+        <v>2345</v>
       </c>
       <c r="G120" t="n">
-        <v>-20858349.59554211</v>
+        <v>-20867825.14574211</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5071,7 +5021,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5082,22 +5036,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="C121" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="D121" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="E121" t="n">
-        <v>215.2</v>
+        <v>216.9</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>499.8584</v>
       </c>
       <c r="G121" t="n">
-        <v>-20858349.59554211</v>
+        <v>-20868325.00414211</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5107,7 +5061,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5118,22 +5076,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>215.1</v>
+        <v>215.9</v>
       </c>
       <c r="C122" t="n">
-        <v>215.1</v>
+        <v>215.9</v>
       </c>
       <c r="D122" t="n">
-        <v>215.2</v>
+        <v>215.9</v>
       </c>
       <c r="E122" t="n">
-        <v>215.1</v>
+        <v>215.9</v>
       </c>
       <c r="F122" t="n">
-        <v>8207.1937</v>
+        <v>284.0344</v>
       </c>
       <c r="G122" t="n">
-        <v>-20866556.78924211</v>
+        <v>-20868609.03854211</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5143,7 +5101,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5154,22 +5116,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="C123" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="D123" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="E123" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="F123" t="n">
-        <v>4376.7368</v>
+        <v>814.026</v>
       </c>
       <c r="G123" t="n">
-        <v>-20870933.52604211</v>
+        <v>-20867795.01254211</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5179,7 +5141,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +5156,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="C124" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="D124" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="E124" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="F124" t="n">
         <v>2000</v>
       </c>
       <c r="G124" t="n">
-        <v>-20868933.52604211</v>
+        <v>-20869795.01254211</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5215,7 +5181,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5226,22 +5196,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="C125" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="D125" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="E125" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>4213.8855</v>
       </c>
       <c r="G125" t="n">
-        <v>-20870933.52604211</v>
+        <v>-20865581.12704211</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5251,7 +5221,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5262,22 +5236,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>214.9</v>
+        <v>216.9</v>
       </c>
       <c r="C126" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="D126" t="n">
-        <v>214.9</v>
+        <v>217</v>
       </c>
       <c r="E126" t="n">
-        <v>214.8</v>
+        <v>216.9</v>
       </c>
       <c r="F126" t="n">
-        <v>3498.0414</v>
+        <v>15836.5607</v>
       </c>
       <c r="G126" t="n">
-        <v>-20870933.52604211</v>
+        <v>-20865581.12704211</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5287,7 +5261,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5276,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="C127" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="D127" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="E127" t="n">
-        <v>215.1</v>
+        <v>216.9</v>
       </c>
       <c r="F127" t="n">
-        <v>4425.3672</v>
+        <v>4916.5621</v>
       </c>
       <c r="G127" t="n">
-        <v>-20866508.15884212</v>
+        <v>-20865581.12704211</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5323,7 +5301,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5334,22 +5316,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>214.9</v>
+        <v>216</v>
       </c>
       <c r="C128" t="n">
-        <v>213.1</v>
+        <v>217</v>
       </c>
       <c r="D128" t="n">
-        <v>214.9</v>
+        <v>217</v>
       </c>
       <c r="E128" t="n">
-        <v>213.1</v>
+        <v>216</v>
       </c>
       <c r="F128" t="n">
-        <v>10220</v>
+        <v>29</v>
       </c>
       <c r="G128" t="n">
-        <v>-20876728.15884212</v>
+        <v>-20865552.12704211</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5359,7 +5341,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5370,22 +5356,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>214.6</v>
+        <v>216</v>
       </c>
       <c r="C129" t="n">
-        <v>214.6</v>
+        <v>215.9</v>
       </c>
       <c r="D129" t="n">
-        <v>214.6</v>
+        <v>216</v>
       </c>
       <c r="E129" t="n">
-        <v>214.6</v>
+        <v>215.9</v>
       </c>
       <c r="F129" t="n">
-        <v>1102.3255</v>
+        <v>1268.6109</v>
       </c>
       <c r="G129" t="n">
-        <v>-20875625.83334212</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5395,7 +5381,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5406,22 +5396,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="C130" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="D130" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="E130" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="F130" t="n">
-        <v>3982.8305</v>
+        <v>2416.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>-20879608.66384212</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5431,7 +5421,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5442,22 +5436,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="C131" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="D131" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="E131" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="F131" t="n">
-        <v>1178.4585</v>
+        <v>417.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>-20878430.20534211</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5467,7 +5461,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5478,22 +5476,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="C132" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="D132" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="E132" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="F132" t="n">
-        <v>5032.5399</v>
+        <v>1873.5625</v>
       </c>
       <c r="G132" t="n">
-        <v>-20878430.20534211</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5503,7 +5501,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5514,22 +5516,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="C133" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="D133" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="E133" t="n">
-        <v>213.5</v>
+        <v>215.9</v>
       </c>
       <c r="F133" t="n">
-        <v>3226.0927</v>
+        <v>3991.55</v>
       </c>
       <c r="G133" t="n">
-        <v>-20881656.29804211</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5539,7 +5541,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5550,22 +5556,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="C134" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="D134" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="E134" t="n">
-        <v>213.3</v>
+        <v>215.9</v>
       </c>
       <c r="F134" t="n">
-        <v>5000</v>
+        <v>444.5956</v>
       </c>
       <c r="G134" t="n">
-        <v>-20886656.29804211</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5575,7 +5581,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5586,22 +5596,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>213.8</v>
+        <v>215.9</v>
       </c>
       <c r="C135" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="D135" t="n">
-        <v>213.8</v>
+        <v>215.9</v>
       </c>
       <c r="E135" t="n">
-        <v>213.7</v>
+        <v>215.9</v>
       </c>
       <c r="F135" t="n">
-        <v>1500</v>
+        <v>3895.679</v>
       </c>
       <c r="G135" t="n">
-        <v>-20885156.29804211</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5611,7 +5621,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5622,22 +5636,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="C136" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="D136" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="E136" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="F136" t="n">
-        <v>926.2778</v>
+        <v>3079.8548</v>
       </c>
       <c r="G136" t="n">
-        <v>-20884230.02024211</v>
+        <v>-20866820.73794211</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5647,7 +5661,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5658,22 +5676,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="C137" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="D137" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="E137" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="F137" t="n">
-        <v>73.7222</v>
+        <v>1516.6531</v>
       </c>
       <c r="G137" t="n">
-        <v>-20884230.02024211</v>
+        <v>-20868337.39104211</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5683,7 +5701,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5694,22 +5716,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="C138" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="D138" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="E138" t="n">
-        <v>215.9</v>
+        <v>215.6</v>
       </c>
       <c r="F138" t="n">
-        <v>145.7643</v>
+        <v>459.1864</v>
       </c>
       <c r="G138" t="n">
-        <v>-20884084.25594211</v>
+        <v>-20867878.20464211</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5719,7 +5741,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5730,36 +5756,1200 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="C139" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="D139" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="E139" t="n">
-        <v>215.3</v>
+        <v>216.8</v>
       </c>
       <c r="F139" t="n">
-        <v>360.5207</v>
+        <v>298.1799</v>
       </c>
       <c r="G139" t="n">
-        <v>-20884444.77664211</v>
+        <v>-20867580.02474211</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
       <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>198.6704</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-20867580.02474211</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>216</v>
+      </c>
+      <c r="C141" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>216</v>
+      </c>
+      <c r="E141" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10190.7399</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-20877770.76464211</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>260.0553</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-20877770.76464211</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>201.2383</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-20877569.52634211</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-20855069.52634211</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>216</v>
+      </c>
+      <c r="C145" t="n">
+        <v>216</v>
+      </c>
+      <c r="D145" t="n">
+        <v>216</v>
+      </c>
+      <c r="E145" t="n">
+        <v>216</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2157.25</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-20857226.77634211</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>191</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-20857035.77634211</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>880.186</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-20857915.96234211</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>459.1865</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-20858375.14884211</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25.5533</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-20858349.59554211</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-20858349.59554211</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8207.1937</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-20866556.78924211</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4376.7368</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-20870933.52604211</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>215</v>
+      </c>
+      <c r="C153" t="n">
+        <v>215</v>
+      </c>
+      <c r="D153" t="n">
+        <v>215</v>
+      </c>
+      <c r="E153" t="n">
+        <v>215</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-20868933.52604211</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-20870933.52604211</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3498.0414</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-20870933.52604211</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4425.3672</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-20866508.15884212</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>213.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10220</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-20876728.15884212</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1102.3255</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-20875625.83334212</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3982.8305</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-20879608.66384212</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1178.4585</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-20878430.20534211</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5032.5399</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-20878430.20534211</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3226.0927</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-20881656.29804211</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-20886656.29804211</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>213.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>213.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>213.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-20885156.29804211</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>215</v>
+      </c>
+      <c r="C165" t="n">
+        <v>215</v>
+      </c>
+      <c r="D165" t="n">
+        <v>215</v>
+      </c>
+      <c r="E165" t="n">
+        <v>215</v>
+      </c>
+      <c r="F165" t="n">
+        <v>926.2778</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-20884230.02024211</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>215</v>
+      </c>
+      <c r="C166" t="n">
+        <v>215</v>
+      </c>
+      <c r="D166" t="n">
+        <v>215</v>
+      </c>
+      <c r="E166" t="n">
+        <v>215</v>
+      </c>
+      <c r="F166" t="n">
+        <v>73.7222</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-20884230.02024211</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>145.7643</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-20884084.25594211</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>360.5207</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-20884444.77664211</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-160756.0314733898</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-130251.0314733898</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-135898.1007733898</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-142601.7053733898</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-20710775.42147339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,21 @@
         <v>-20763652.50587339</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>211.5</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1779,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1816,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1853,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,24 +1888,19 @@
         <v>-20829919.41137338</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2046,24 +1925,19 @@
         <v>-20837544.67827338</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>209.8</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2088,24 +1962,19 @@
         <v>-20837544.67827338</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,24 +1999,21 @@
         <v>-20837290.12737338</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
         <v>209.7</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2172,24 +2038,21 @@
         <v>-20833792.08594212</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
         <v>211.7</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2216,20 +2079,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2254,22 +2114,21 @@
         <v>-20840317.52574212</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2294,22 +2153,21 @@
         <v>-20851840.26754212</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2334,22 +2192,21 @@
         <v>-20851825.70494212</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2374,22 +2231,21 @@
         <v>-20851811.60074212</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2416,20 +2272,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2456,20 +2309,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2496,20 +2346,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2536,20 +2383,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2576,20 +2420,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2616,20 +2457,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2656,20 +2494,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2696,20 +2531,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2736,20 +2568,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2776,20 +2605,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2816,20 +2642,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2856,20 +2679,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2896,20 +2716,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2934,22 +2751,21 @@
         <v>-20855055.98514212</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>211.9</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2974,22 +2790,21 @@
         <v>-20855055.98514212</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>212.4</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3016,20 +2831,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3054,22 +2866,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3094,22 +2905,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3134,22 +2944,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3174,22 +2983,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3214,22 +3022,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3254,22 +3061,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3294,22 +3100,21 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>212.1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3336,20 +3141,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3376,20 +3178,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3414,22 +3213,21 @@
         <v>-20838140.66924211</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>212.9</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3456,20 +3254,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3496,20 +3291,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3536,20 +3328,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3574,22 +3363,21 @@
         <v>-20818736.66924211</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3616,20 +3404,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3656,20 +3441,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3696,20 +3478,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3736,20 +3515,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3776,20 +3552,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3816,20 +3589,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3854,22 +3624,21 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>214.5</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3894,22 +3663,21 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>214.5</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3934,22 +3702,21 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>214.5</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3974,22 +3741,21 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>214.5</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4014,22 +3780,21 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>215.3</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4054,22 +3819,21 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>215.3</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4094,22 +3858,21 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>215.3</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4136,20 +3899,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4176,20 +3936,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,20 +3973,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4254,22 +4008,17 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4296,20 +4045,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4334,22 +4076,15 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4376,20 +4111,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4414,22 +4142,15 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4454,22 +4175,15 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4494,22 +4208,15 @@
         <v>-20855823.14784212</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4534,22 +4241,15 @@
         <v>-20867920.45344212</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4574,22 +4274,15 @@
         <v>-20867918.14344212</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4614,22 +4307,15 @@
         <v>-20868023.21094212</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4656,20 +4342,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4694,22 +4373,15 @@
         <v>-20876183.99324211</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4736,20 +4408,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4776,20 +4441,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4816,20 +4474,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4856,20 +4507,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4896,20 +4540,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4936,20 +4573,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4976,20 +4606,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5016,20 +4639,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5056,20 +4672,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5096,20 +4705,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5136,20 +4738,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5176,20 +4771,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5216,20 +4804,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5256,20 +4837,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5296,20 +4870,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5336,20 +4903,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5376,20 +4936,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5416,20 +4969,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5456,20 +5002,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5496,20 +5035,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5536,20 +5068,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5576,20 +5101,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5616,20 +5134,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5656,20 +5167,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5696,20 +5200,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5736,20 +5233,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5776,20 +5266,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5816,20 +5299,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5856,20 +5332,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5896,20 +5365,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5936,20 +5398,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5976,20 +5431,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6016,20 +5464,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6056,20 +5497,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6096,20 +5530,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6136,20 +5563,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6176,20 +5596,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6216,20 +5629,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6256,20 +5662,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6296,20 +5695,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6336,20 +5728,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6376,20 +5761,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6416,20 +5794,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6456,20 +5827,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6496,20 +5860,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6536,20 +5893,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6576,20 +5926,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6616,20 +5959,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6656,20 +5992,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6696,20 +6025,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6736,20 +6058,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6776,20 +6091,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6816,20 +6124,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6856,20 +6157,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6896,20 +6190,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6936,22 +6223,15 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-162012.4813733898</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-162002.4642733898</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-168478.6970733898</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-162019.9382733898</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-162019.9382733898</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-162019.9382733898</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-158019.9382733898</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-156924.0314733898</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-160756.0314733898</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-156251.0314733898</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-130251.0314733898</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-135898.1007733898</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-142601.7053733898</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-20710775.42147339</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1740,15 +1740,9 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>211.5</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1777,15 +1771,11 @@
         <v>-20780053.97037338</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1818,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1929,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1966,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1999,17 +1969,11 @@
         <v>-20837290.12737338</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>209.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2038,17 +2002,11 @@
         <v>-20833792.08594212</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>211.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2114,17 +2068,11 @@
         <v>-20840317.52574212</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2153,17 +2101,11 @@
         <v>-20851840.26754212</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2192,17 +2134,11 @@
         <v>-20851825.70494212</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2231,17 +2167,11 @@
         <v>-20851811.60074212</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2274,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2422,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2751,17 +2629,11 @@
         <v>-20855055.98514212</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>211.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2790,17 +2662,11 @@
         <v>-20855055.98514212</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>212.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2833,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2866,17 +2728,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2905,17 +2761,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2944,17 +2794,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2983,17 +2827,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3022,17 +2860,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3061,17 +2893,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3100,17 +2926,11 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3139,15 +2959,15 @@
         <v>-20838848.09254212</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3179,10 +2999,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>212.1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3213,15 +3035,15 @@
         <v>-20838140.66924211</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>212.1</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3256,11 +3078,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +3111,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +3144,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3363,17 +3173,11 @@
         <v>-20818736.66924211</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3210,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3243,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3480,11 +3276,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3517,11 +3309,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3550,15 +3338,15 @@
         <v>-20830566.26714212</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3587,13 +3375,17 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>214.2</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3624,15 +3416,17 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>214.5</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>214.2</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3663,17 +3457,15 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>214.5</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3702,15 +3494,17 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>214.5</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3741,12 +3535,14 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>214.5</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,12 +3576,14 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>215.3</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,12 +3617,14 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>215.3</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,12 +3658,14 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>215.3</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,10 +3699,14 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,10 +3740,14 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,10 +3781,14 @@
         <v>-20832386.18664212</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,16 +3822,22 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>214.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
       <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4043,11 +3863,19 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +3904,19 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3945,19 @@
         <v>-20832171.62744212</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4142,11 +3986,19 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4027,19 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4208,11 +4068,19 @@
         <v>-20855823.14784212</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4109,19 @@
         <v>-20867920.45344212</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4274,11 +4150,19 @@
         <v>-20867918.14344212</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4307,11 +4191,19 @@
         <v>-20868023.21094212</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4232,19 @@
         <v>-20877561.27954211</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>216</v>
+      </c>
+      <c r="J111" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4273,19 @@
         <v>-20876183.99324211</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4314,19 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4439,11 +4355,19 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>215</v>
+      </c>
+      <c r="J114" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4472,11 +4396,19 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>215</v>
+      </c>
+      <c r="J115" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4437,19 @@
         <v>-20876408.98314212</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>215</v>
+      </c>
+      <c r="J116" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4478,19 @@
         <v>-20872596.77964212</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>216</v>
+      </c>
+      <c r="J117" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +4519,19 @@
         <v>-20872596.77964212</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +4560,19 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +4601,19 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4673,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4706,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +4720,19 @@
         <v>-20867795.01254211</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="J123" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4772,8 +4764,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4805,8 +4803,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4838,8 +4842,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4871,8 +4881,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +4959,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4970,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5003,8 +5037,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5036,8 +5076,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5069,8 +5115,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5102,8 +5154,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5135,8 +5193,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5168,8 +5232,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5201,8 +5271,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5234,8 +5310,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5267,8 +5349,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5300,8 +5388,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5333,8 +5427,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5366,8 +5466,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5399,8 +5505,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5432,8 +5544,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5465,8 +5583,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +5622,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5531,8 +5661,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5564,8 +5700,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5597,8 +5739,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5630,8 +5778,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5663,8 +5817,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5696,8 +5856,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5729,8 +5895,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5762,8 +5934,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5795,8 +5973,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5828,8 +6012,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5861,8 +6051,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5894,8 +6090,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5927,8 +6129,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5960,8 +6168,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5993,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6026,8 +6246,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +6285,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6324,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6125,8 +6363,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6158,8 +6402,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6191,8 +6441,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6224,14 +6480,20 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -583,7 +583,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-160756.0314733898</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-156251.0314733898</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-130251.0314733898</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-137864.0314733898</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-135898.1007733898</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-20710775.42147339</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-20838854.50494212</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20818736.66924211</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20830937.54984212</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-20831094.37684212</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,10 +3289,14 @@
         <v>-20830568.59714212</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>213.3</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3322,11 +3326,19 @@
         <v>-20830566.26714212</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3367,19 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,10 +3408,14 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>214.5</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3421,11 +3445,19 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3486,19 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3527,19 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3568,19 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3609,19 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3650,19 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3691,19 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3732,19 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3773,19 @@
         <v>-20832386.18664212</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3814,19 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>214.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3855,19 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3896,19 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3937,19 @@
         <v>-20832171.62744212</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,13 +3978,19 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>1.003857808857809</v>
       </c>
       <c r="M105" t="inlineStr"/>
     </row>
@@ -3883,7 +4017,7 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4050,7 @@
         <v>-20855823.14784212</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4083,7 @@
         <v>-20867920.45344212</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4116,7 @@
         <v>-20867918.14344212</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4149,7 @@
         <v>-20868023.21094212</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4182,7 @@
         <v>-20877561.27954211</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4215,7 @@
         <v>-20876183.99324211</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4248,7 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4281,7 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4279,7 +4413,7 @@
         <v>-20872596.77964212</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4446,7 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4479,7 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4512,7 @@
         <v>-20868325.00414211</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4545,7 @@
         <v>-20868609.03854211</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4578,7 @@
         <v>-20867795.01254211</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4611,7 @@
         <v>-20869795.01254211</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4644,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4677,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4710,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4743,7 @@
         <v>-20865552.12704211</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4776,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4809,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5830,14 +5964,10 @@
         <v>-20884230.02024211</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>213.7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>213.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5867,19 +5997,11 @@
         <v>-20884230.02024211</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>215</v>
-      </c>
-      <c r="J166" t="n">
-        <v>213.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5908,19 +6030,11 @@
         <v>-20884084.25594211</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>215</v>
-      </c>
-      <c r="J167" t="n">
-        <v>213.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5949,14 +6063,10 @@
         <v>-20884444.77664211</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="J168" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>

--- a/BackTest/2020-01-15 BackTest BAT.xlsx
+++ b/BackTest/2020-01-15 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>55.2532</v>
       </c>
       <c r="G2" t="n">
-        <v>-162012.4813733898</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10.0171</v>
       </c>
       <c r="G3" t="n">
-        <v>-162002.4642733898</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6476.2328</v>
       </c>
       <c r="G4" t="n">
-        <v>-168478.6970733898</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3613</v>
       </c>
       <c r="G5" t="n">
-        <v>-164865.6970733898</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>39.8067</v>
       </c>
       <c r="G6" t="n">
-        <v>-164865.6970733898</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2038.9818</v>
       </c>
       <c r="G7" t="n">
-        <v>-164865.6970733898</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1315.6896</v>
       </c>
       <c r="G8" t="n">
-        <v>-164865.6970733898</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2845.7588</v>
       </c>
       <c r="G9" t="n">
-        <v>-162019.9382733898</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>13.926</v>
       </c>
       <c r="G10" t="n">
-        <v>-162019.9382733898</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>140.3152</v>
       </c>
       <c r="G11" t="n">
-        <v>-162019.9382733898</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4000</v>
       </c>
       <c r="G12" t="n">
-        <v>-158019.9382733898</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1095.9068</v>
       </c>
       <c r="G13" t="n">
-        <v>-156924.0314733898</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3832</v>
       </c>
       <c r="G14" t="n">
-        <v>-160756.0314733898</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4505</v>
       </c>
       <c r="G15" t="n">
-        <v>-156251.0314733898</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>26000</v>
       </c>
       <c r="G16" t="n">
-        <v>-130251.0314733898</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>15400</v>
       </c>
       <c r="G17" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2116.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4221.2605</v>
       </c>
       <c r="G19" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1498</v>
       </c>
       <c r="G20" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>305.13</v>
       </c>
       <c r="G21" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>5234.8884</v>
       </c>
       <c r="G22" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>7415.5143</v>
       </c>
       <c r="G23" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>600</v>
       </c>
       <c r="G24" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5820</v>
       </c>
       <c r="G25" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1600</v>
       </c>
       <c r="G26" t="n">
-        <v>-145651.0314733898</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7787</v>
       </c>
       <c r="G27" t="n">
-        <v>-137864.0314733898</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>8034.0693</v>
       </c>
       <c r="G28" t="n">
-        <v>-145898.1007733898</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>4561.9144</v>
       </c>
       <c r="G29" t="n">
-        <v>-145898.1007733898</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>921.9315</v>
       </c>
       <c r="G30" t="n">
-        <v>-145898.1007733898</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>-135898.1007733898</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>6703.6046</v>
       </c>
       <c r="G32" t="n">
-        <v>-142601.7053733898</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>192.4899</v>
       </c>
       <c r="G33" t="n">
-        <v>-142794.1952733898</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>21</v>
       </c>
       <c r="G34" t="n">
-        <v>-142794.1952733898</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>20567981.2262</v>
       </c>
       <c r="G35" t="n">
-        <v>-20710775.42147339</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>53922.0844</v>
       </c>
       <c r="G36" t="n">
-        <v>-20764697.50587339</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>40865.7759</v>
       </c>
       <c r="G37" t="n">
-        <v>-20764697.50587339</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5384.075</v>
       </c>
       <c r="G38" t="n">
-        <v>-20764697.50587339</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4955.0349</v>
       </c>
       <c r="G39" t="n">
-        <v>-20764697.50587339</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>8661.3104</v>
       </c>
       <c r="G40" t="n">
-        <v>-20764697.50587339</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1045</v>
       </c>
       <c r="G41" t="n">
-        <v>-20763652.50587339</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>16401.4645</v>
       </c>
       <c r="G42" t="n">
-        <v>-20780053.97037338</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2695.7599</v>
       </c>
       <c r="G43" t="n">
-        <v>-20782749.73027338</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>33167.7718</v>
       </c>
       <c r="G44" t="n">
-        <v>-20815917.50207338</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>14001.9093</v>
       </c>
       <c r="G45" t="n">
-        <v>-20829919.41137338</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>7625.2669</v>
       </c>
       <c r="G46" t="n">
-        <v>-20837544.67827338</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>52011.204</v>
       </c>
       <c r="G47" t="n">
-        <v>-20837544.67827338</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,19 @@
         <v>254.5509</v>
       </c>
       <c r="G48" t="n">
-        <v>-20837290.12737338</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>209.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>209.7</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1857,23 @@
         <v>3498.04143126177</v>
       </c>
       <c r="G49" t="n">
-        <v>-20833792.08594212</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>211.7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1895,21 @@
         <v>6535.4398</v>
       </c>
       <c r="G50" t="n">
-        <v>-20840327.52574212</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1931,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-20840317.52574212</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1961,15 @@
         <v>11522.7418</v>
       </c>
       <c r="G52" t="n">
-        <v>-20851840.26754212</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1991,19 @@
         <v>14.5626</v>
       </c>
       <c r="G53" t="n">
-        <v>-20851825.70494212</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>211</v>
+      </c>
+      <c r="I53" t="n">
+        <v>211</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2025,23 @@
         <v>14.1042</v>
       </c>
       <c r="G54" t="n">
-        <v>-20851811.60074212</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>212</v>
+      </c>
+      <c r="I54" t="n">
+        <v>211</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2063,23 @@
         <v>18200.8385</v>
       </c>
       <c r="G55" t="n">
-        <v>-20833610.76224212</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>212.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>211</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2101,15 @@
         <v>4210.9984</v>
       </c>
       <c r="G56" t="n">
-        <v>-20837821.76064212</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2131,15 @@
         <v>1175.1911</v>
       </c>
       <c r="G57" t="n">
-        <v>-20838996.95174212</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2161,15 @@
         <v>142.4468</v>
       </c>
       <c r="G58" t="n">
-        <v>-20838854.50494212</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2191,15 @@
         <v>1194.4491</v>
       </c>
       <c r="G59" t="n">
-        <v>-20837660.05584212</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2221,15 @@
         <v>445.632</v>
       </c>
       <c r="G60" t="n">
-        <v>-20837214.42384212</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2251,15 @@
         <v>238.5715</v>
       </c>
       <c r="G61" t="n">
-        <v>-20837214.42384212</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2281,15 @@
         <v>3516.4819</v>
       </c>
       <c r="G62" t="n">
-        <v>-20837214.42384212</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2311,15 @@
         <v>17804.4069</v>
       </c>
       <c r="G63" t="n">
-        <v>-20837214.42384212</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2341,15 @@
         <v>14500.9898</v>
       </c>
       <c r="G64" t="n">
-        <v>-20851715.41364212</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2371,15 @@
         <v>2509.0102</v>
       </c>
       <c r="G65" t="n">
-        <v>-20849206.40344211</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2401,15 @@
         <v>7200</v>
       </c>
       <c r="G66" t="n">
-        <v>-20849206.40344211</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2431,15 @@
         <v>6849.5817</v>
       </c>
       <c r="G67" t="n">
-        <v>-20856055.98514212</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2461,15 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-20855055.98514212</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2491,15 @@
         <v>2982.0513</v>
       </c>
       <c r="G69" t="n">
-        <v>-20855055.98514212</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2521,15 @@
         <v>3359.0406</v>
       </c>
       <c r="G70" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2551,15 @@
         <v>12001.6057</v>
       </c>
       <c r="G71" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2581,15 @@
         <v>1200</v>
       </c>
       <c r="G72" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2611,15 @@
         <v>2600</v>
       </c>
       <c r="G73" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2641,15 @@
         <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2671,15 @@
         <v>5990</v>
       </c>
       <c r="G75" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2701,15 @@
         <v>505</v>
       </c>
       <c r="G76" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2731,15 @@
         <v>43.2393</v>
       </c>
       <c r="G77" t="n">
-        <v>-20858415.02574212</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2761,15 @@
         <v>19566.9332</v>
       </c>
       <c r="G78" t="n">
-        <v>-20838848.09254212</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2791,15 @@
         <v>7131.9524</v>
       </c>
       <c r="G79" t="n">
-        <v>-20838848.09254212</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2821,15 @@
         <v>707.4233</v>
       </c>
       <c r="G80" t="n">
-        <v>-20838140.66924211</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2851,15 @@
         <v>12936</v>
       </c>
       <c r="G81" t="n">
-        <v>-20825204.66924211</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2881,15 @@
         <v>18351.9503</v>
       </c>
       <c r="G82" t="n">
-        <v>-20825204.66924211</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2911,15 @@
         <v>6468</v>
       </c>
       <c r="G83" t="n">
-        <v>-20818736.66924211</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2941,15 @@
         <v>2320.7306</v>
       </c>
       <c r="G84" t="n">
-        <v>-20818736.66924211</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2971,15 @@
         <v>1175.5333</v>
       </c>
       <c r="G85" t="n">
-        <v>-20818736.66924211</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3001,15 @@
         <v>12200.8806</v>
       </c>
       <c r="G86" t="n">
-        <v>-20830937.54984212</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3031,15 @@
         <v>156.827</v>
       </c>
       <c r="G87" t="n">
-        <v>-20831094.37684212</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,22 +3061,15 @@
         <v>525.7797</v>
       </c>
       <c r="G88" t="n">
-        <v>-20830568.59714212</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>213.3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>213.3</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3323,26 +3091,15 @@
         <v>2.33</v>
       </c>
       <c r="G89" t="n">
-        <v>-20830566.26714212</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>213.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3364,26 +3121,15 @@
         <v>320.096</v>
       </c>
       <c r="G90" t="n">
-        <v>-20830886.36314212</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>214.8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>213.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,22 +3151,15 @@
         <v>554.1662</v>
       </c>
       <c r="G91" t="n">
-        <v>-20830886.36314212</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3442,26 +3181,15 @@
         <v>19438.7804</v>
       </c>
       <c r="G92" t="n">
-        <v>-20830886.36314212</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3483,26 +3211,15 @@
         <v>470.529</v>
       </c>
       <c r="G93" t="n">
-        <v>-20830886.36314212</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,26 +3241,15 @@
         <v>2.33</v>
       </c>
       <c r="G94" t="n">
-        <v>-20830884.03314212</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3565,26 +3271,15 @@
         <v>1943.1566</v>
       </c>
       <c r="G95" t="n">
-        <v>-20830884.03314212</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3606,26 +3301,15 @@
         <v>1906.5718</v>
       </c>
       <c r="G96" t="n">
-        <v>-20830884.03314212</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3647,26 +3331,15 @@
         <v>336.4402</v>
       </c>
       <c r="G97" t="n">
-        <v>-20830884.03314212</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3688,26 +3361,15 @@
         <v>487.4236</v>
       </c>
       <c r="G98" t="n">
-        <v>-20830884.03314212</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3729,26 +3391,15 @@
         <v>4168.2504</v>
       </c>
       <c r="G99" t="n">
-        <v>-20830884.03314212</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3770,26 +3421,15 @@
         <v>1502.1535</v>
       </c>
       <c r="G100" t="n">
-        <v>-20832386.18664212</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3811,26 +3451,15 @@
         <v>212.2492</v>
       </c>
       <c r="G101" t="n">
-        <v>-20832173.93744212</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>214.7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3852,26 +3481,15 @@
         <v>14943.5781</v>
       </c>
       <c r="G102" t="n">
-        <v>-20832173.93744212</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3893,26 +3511,15 @@
         <v>281.6668</v>
       </c>
       <c r="G103" t="n">
-        <v>-20832173.93744212</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3934,26 +3541,15 @@
         <v>2.31</v>
       </c>
       <c r="G104" t="n">
-        <v>-20832171.62744212</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3975,24 +3571,15 @@
         <v>3717</v>
       </c>
       <c r="G105" t="n">
-        <v>-20835888.62744212</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1.003857808857809</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4014,18 +3601,15 @@
         <v>52.2554</v>
       </c>
       <c r="G106" t="n">
-        <v>-20835888.62744212</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4047,18 +3631,15 @@
         <v>19934.5204</v>
       </c>
       <c r="G107" t="n">
-        <v>-20855823.14784212</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4080,18 +3661,15 @@
         <v>12097.3056</v>
       </c>
       <c r="G108" t="n">
-        <v>-20867920.45344212</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4113,18 +3691,15 @@
         <v>2.31</v>
       </c>
       <c r="G109" t="n">
-        <v>-20867918.14344212</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4146,18 +3721,15 @@
         <v>105.0675</v>
       </c>
       <c r="G110" t="n">
-        <v>-20868023.21094212</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4179,18 +3751,15 @@
         <v>9538.068600000001</v>
       </c>
       <c r="G111" t="n">
-        <v>-20877561.27954211</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4212,18 +3781,15 @@
         <v>1377.2863</v>
       </c>
       <c r="G112" t="n">
-        <v>-20876183.99324211</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4245,18 +3811,15 @@
         <v>227.3099</v>
       </c>
       <c r="G113" t="n">
-        <v>-20876411.30314212</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4278,18 +3841,15 @@
         <v>6105</v>
       </c>
       <c r="G114" t="n">
-        <v>-20876411.30314212</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4311,18 +3871,15 @@
         <v>2264.11</v>
       </c>
       <c r="G115" t="n">
-        <v>-20876411.30314212</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4344,18 +3901,15 @@
         <v>2.32</v>
       </c>
       <c r="G116" t="n">
-        <v>-20876408.98314212</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4377,18 +3931,15 @@
         <v>3812.2035</v>
       </c>
       <c r="G117" t="n">
-        <v>-20872596.77964212</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4410,18 +3961,15 @@
         <v>5258.2651</v>
       </c>
       <c r="G118" t="n">
-        <v>-20872596.77964212</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4443,18 +3991,15 @@
         <v>4771.6339</v>
       </c>
       <c r="G119" t="n">
-        <v>-20867825.14574211</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4476,18 +4021,15 @@
         <v>2345</v>
       </c>
       <c r="G120" t="n">
-        <v>-20867825.14574211</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4509,18 +4051,15 @@
         <v>499.8584</v>
       </c>
       <c r="G121" t="n">
-        <v>-20868325.00414211</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4542,18 +4081,15 @@
         <v>284.0344</v>
       </c>
       <c r="G122" t="n">
-        <v>-20868609.03854211</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4575,18 +4111,15 @@
         <v>814.026</v>
       </c>
       <c r="G123" t="n">
-        <v>-20867795.01254211</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4608,18 +4141,15 @@
         <v>2000</v>
       </c>
       <c r="G124" t="n">
-        <v>-20869795.01254211</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4641,18 +4171,15 @@
         <v>4213.8855</v>
       </c>
       <c r="G125" t="n">
-        <v>-20865581.12704211</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4674,18 +4201,15 @@
         <v>15836.5607</v>
       </c>
       <c r="G126" t="n">
-        <v>-20865581.12704211</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4707,18 +4231,15 @@
         <v>4916.5621</v>
       </c>
       <c r="G127" t="n">
-        <v>-20865581.12704211</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4740,18 +4261,15 @@
         <v>29</v>
       </c>
       <c r="G128" t="n">
-        <v>-20865552.12704211</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4773,18 +4291,15 @@
         <v>1268.6109</v>
       </c>
       <c r="G129" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4806,18 +4321,15 @@
         <v>2416.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4839,18 +4351,15 @@
         <v>417.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4872,18 +4381,15 @@
         <v>1873.5625</v>
       </c>
       <c r="G132" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4905,18 +4411,15 @@
         <v>3991.55</v>
       </c>
       <c r="G133" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4938,18 +4441,15 @@
         <v>444.5956</v>
       </c>
       <c r="G134" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4971,18 +4471,15 @@
         <v>3895.679</v>
       </c>
       <c r="G135" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5004,18 +4501,15 @@
         <v>3079.8548</v>
       </c>
       <c r="G136" t="n">
-        <v>-20866820.73794211</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5037,18 +4531,15 @@
         <v>1516.6531</v>
       </c>
       <c r="G137" t="n">
-        <v>-20868337.39104211</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5070,18 +4561,15 @@
         <v>459.1864</v>
       </c>
       <c r="G138" t="n">
-        <v>-20867878.20464211</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5103,18 +4591,15 @@
         <v>298.1799</v>
       </c>
       <c r="G139" t="n">
-        <v>-20867580.02474211</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5136,18 +4621,15 @@
         <v>198.6704</v>
       </c>
       <c r="G140" t="n">
-        <v>-20867580.02474211</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5169,18 +4651,15 @@
         <v>10190.7399</v>
       </c>
       <c r="G141" t="n">
-        <v>-20877770.76464211</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5202,18 +4681,15 @@
         <v>260.0553</v>
       </c>
       <c r="G142" t="n">
-        <v>-20877770.76464211</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5235,18 +4711,15 @@
         <v>201.2383</v>
       </c>
       <c r="G143" t="n">
-        <v>-20877569.52634211</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5268,18 +4741,15 @@
         <v>22500</v>
       </c>
       <c r="G144" t="n">
-        <v>-20855069.52634211</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5301,18 +4771,15 @@
         <v>2157.25</v>
       </c>
       <c r="G145" t="n">
-        <v>-20857226.77634211</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5334,18 +4801,15 @@
         <v>191</v>
       </c>
       <c r="G146" t="n">
-        <v>-20857035.77634211</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5367,18 +4831,15 @@
         <v>880.186</v>
       </c>
       <c r="G147" t="n">
-        <v>-20857915.96234211</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5400,18 +4861,15 @@
         <v>459.1865</v>
       </c>
       <c r="G148" t="n">
-        <v>-20858375.14884211</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5433,18 +4891,15 @@
         <v>25.5533</v>
       </c>
       <c r="G149" t="n">
-        <v>-20858349.59554211</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5466,18 +4921,15 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>-20858349.59554211</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5499,18 +4951,15 @@
         <v>8207.1937</v>
       </c>
       <c r="G151" t="n">
-        <v>-20866556.78924211</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5532,18 +4981,15 @@
         <v>4376.7368</v>
       </c>
       <c r="G152" t="n">
-        <v>-20870933.52604211</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5565,18 +5011,15 @@
         <v>2000</v>
       </c>
       <c r="G153" t="n">
-        <v>-20868933.52604211</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5598,18 +5041,15 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>-20870933.52604211</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5631,18 +5071,15 @@
         <v>3498.0414</v>
       </c>
       <c r="G155" t="n">
-        <v>-20870933.52604211</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5664,18 +5101,15 @@
         <v>4425.3672</v>
       </c>
       <c r="G156" t="n">
-        <v>-20866508.15884212</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5697,18 +5131,15 @@
         <v>10220</v>
       </c>
       <c r="G157" t="n">
-        <v>-20876728.15884212</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5730,18 +5161,15 @@
         <v>1102.3255</v>
       </c>
       <c r="G158" t="n">
-        <v>-20875625.83334212</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5763,18 +5191,15 @@
         <v>3982.8305</v>
       </c>
       <c r="G159" t="n">
-        <v>-20879608.66384212</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5796,18 +5221,15 @@
         <v>1178.4585</v>
       </c>
       <c r="G160" t="n">
-        <v>-20878430.20534211</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5829,18 +5251,15 @@
         <v>5032.5399</v>
       </c>
       <c r="G161" t="n">
-        <v>-20878430.20534211</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5862,18 +5281,15 @@
         <v>3226.0927</v>
       </c>
       <c r="G162" t="n">
-        <v>-20881656.29804211</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5895,18 +5311,15 @@
         <v>5000</v>
       </c>
       <c r="G163" t="n">
-        <v>-20886656.29804211</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5928,18 +5341,15 @@
         <v>1500</v>
       </c>
       <c r="G164" t="n">
-        <v>-20885156.29804211</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5961,18 +5371,15 @@
         <v>926.2778</v>
       </c>
       <c r="G165" t="n">
-        <v>-20884230.02024211</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5994,18 +5401,15 @@
         <v>73.7222</v>
       </c>
       <c r="G166" t="n">
-        <v>-20884230.02024211</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6027,18 +5431,15 @@
         <v>145.7643</v>
       </c>
       <c r="G167" t="n">
-        <v>-20884084.25594211</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6060,18 +5461,15 @@
         <v>360.5207</v>
       </c>
       <c r="G168" t="n">
-        <v>-20884444.77664211</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
